--- a/doc/images/work.xlsx
+++ b/doc/images/work.xlsx
@@ -2480,7 +2480,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>GitLab/Concourse</a:t>
+              <a:t>GitLab</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -6152,8 +6152,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2181225" y="1047751"/>
-          <a:ext cx="8020051" cy="6938059"/>
+          <a:off x="2208679" y="1039347"/>
+          <a:ext cx="8133791" cy="6872504"/>
           <a:chOff x="895350" y="2828926"/>
           <a:chExt cx="8020051" cy="6943837"/>
         </a:xfrm>
@@ -6809,6 +6809,47 @@
               </a:rPr>
               <a:t>）</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>この図の下に記載</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -6901,284 +6942,6 @@
               </a:rPr>
               <a:t>）</a:t>
             </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="角丸四角形 62"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5329238" y="4962525"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>GitBucket</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>or</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>GitLab</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="角丸四角形 63"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5329238" y="5381625"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Nexus</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="角丸四角形 64"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5329238" y="5800725"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Jenkins</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>or</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Concourse</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -7604,72 +7367,6 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3407569" y="4552950"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>httpd</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="角丸四角形 74"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5329238" y="4543425"/>
             <a:ext cx="1162050" cy="314324"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -9100,8 +8797,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11401425" y="895350"/>
-          <a:ext cx="7953375" cy="6229350"/>
+          <a:off x="11562229" y="888626"/>
+          <a:ext cx="8067115" cy="6170520"/>
           <a:chOff x="9191625" y="381000"/>
           <a:chExt cx="7953375" cy="6238875"/>
         </a:xfrm>
@@ -11096,8 +10793,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21564600" y="1571625"/>
-          <a:ext cx="8048626" cy="4438650"/>
+          <a:off x="21870521" y="1558178"/>
+          <a:ext cx="8162365" cy="4396628"/>
           <a:chOff x="9153525" y="9839325"/>
           <a:chExt cx="8048626" cy="4438650"/>
         </a:xfrm>
@@ -12649,8 +12346,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21050250" y="8334375"/>
-          <a:ext cx="9544050" cy="3457576"/>
+          <a:off x="21348326" y="8257054"/>
+          <a:ext cx="9677400" cy="3425640"/>
           <a:chOff x="1866900" y="12639675"/>
           <a:chExt cx="9544050" cy="3457576"/>
         </a:xfrm>
@@ -15275,6 +14972,753 @@
               <a:t>構築</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4364131" y="8077760"/>
+          <a:ext cx="3922059" cy="2435598"/>
+          <a:chOff x="3971925" y="7858125"/>
+          <a:chExt cx="3867150" cy="2457449"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="219" name="テキスト ボックス 218"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3971925" y="7858125"/>
+            <a:ext cx="3867150" cy="2457449"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ci</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>サーバの選択肢</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="133" name="グループ化 132"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4195763" y="8123676"/>
+            <a:ext cx="1581150" cy="2084240"/>
+            <a:chOff x="5091113" y="4210051"/>
+            <a:chExt cx="1581150" cy="2085975"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="141" name="角丸四角形 140"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5091113" y="4210051"/>
+              <a:ext cx="1581150" cy="2085975"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 7828"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>GitBucket + Jenkins</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="143" name="角丸四角形 142"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5329238" y="4962525"/>
+              <a:ext cx="1162050" cy="314324"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 21460"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>GitBucket</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="144" name="角丸四角形 143"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5329238" y="5381625"/>
+              <a:ext cx="1162050" cy="314324"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 21460"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>Nexus</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="145" name="角丸四角形 144"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5329238" y="5800725"/>
+              <a:ext cx="1162050" cy="314324"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 21460"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>Jenkins</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>or</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>Concourse</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="153" name="角丸四角形 152"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5329238" y="4543425"/>
+              <a:ext cx="1162050" cy="314324"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 21460"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>httpd</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="212" name="角丸四角形 211"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6129338" y="8114150"/>
+            <a:ext cx="1581150" cy="2084240"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 7828"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>GitLab</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="213" name="角丸四角形 212"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6348413" y="8875801"/>
+            <a:ext cx="1162050" cy="314063"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 21460"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>GitLab</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="216" name="角丸四角形 215"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6348413" y="9294553"/>
+            <a:ext cx="1162050" cy="314063"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 21460"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Nexus</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="218" name="角丸四角形 217"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6348413" y="8457050"/>
+            <a:ext cx="1162050" cy="314063"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 21460"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>httpd</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -15580,8 +16024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P36:AR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AZ23" sqref="AZ23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15630,9 +16074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P36:AR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="BY1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CJ37" sqref="CJ37"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>

--- a/doc/images/work.xlsx
+++ b/doc/images/work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="24570" windowHeight="12120"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="24570" windowHeight="12120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -15732,6 +15732,109 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>225238</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="角丸四角形 133"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4147297" y="6485405"/>
+          <a:ext cx="1780615" cy="439829"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5795"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DLM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16024,8 +16127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P36:AR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AO29" sqref="AO29"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -16074,7 +16177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P36:AR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>

--- a/doc/images/work.xlsx
+++ b/doc/images/work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="24570" windowHeight="12120"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="24570" windowHeight="12120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -2480,7 +2480,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>GitLab/Concourse</a:t>
+              <a:t>GitLab</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -6152,8 +6152,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2181225" y="1047751"/>
-          <a:ext cx="8020051" cy="6938059"/>
+          <a:off x="2208679" y="1039347"/>
+          <a:ext cx="8133791" cy="6872504"/>
           <a:chOff x="895350" y="2828926"/>
           <a:chExt cx="8020051" cy="6943837"/>
         </a:xfrm>
@@ -6809,6 +6809,47 @@
               </a:rPr>
               <a:t>）</a:t>
             </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>この図の下に記載</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -6901,284 +6942,6 @@
               </a:rPr>
               <a:t>）</a:t>
             </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="角丸四角形 62"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5329238" y="4962525"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>GitBucket</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>or</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>GitLab</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="角丸四角形 63"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5329238" y="5381625"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Nexus</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="角丸四角形 64"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5329238" y="5800725"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Jenkins</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>or</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Concourse</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -7604,72 +7367,6 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3407569" y="4552950"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>httpd</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="角丸四角形 74"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5329238" y="4543425"/>
             <a:ext cx="1162050" cy="314324"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
@@ -9100,8 +8797,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11401425" y="895350"/>
-          <a:ext cx="7953375" cy="6229350"/>
+          <a:off x="11562229" y="888626"/>
+          <a:ext cx="8067115" cy="6170520"/>
           <a:chOff x="9191625" y="381000"/>
           <a:chExt cx="7953375" cy="6238875"/>
         </a:xfrm>
@@ -11096,8 +10793,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21564600" y="1571625"/>
-          <a:ext cx="8048626" cy="4438650"/>
+          <a:off x="21870521" y="1558178"/>
+          <a:ext cx="8162365" cy="4396628"/>
           <a:chOff x="9153525" y="9839325"/>
           <a:chExt cx="8048626" cy="4438650"/>
         </a:xfrm>
@@ -12649,8 +12346,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21050250" y="8334375"/>
-          <a:ext cx="9544050" cy="3457576"/>
+          <a:off x="21348326" y="8257054"/>
+          <a:ext cx="9677400" cy="3425640"/>
           <a:chOff x="1866900" y="12639675"/>
           <a:chExt cx="9544050" cy="3457576"/>
         </a:xfrm>
@@ -15286,6 +14983,856 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4364131" y="8077760"/>
+          <a:ext cx="3922059" cy="2435598"/>
+          <a:chOff x="3971925" y="7858125"/>
+          <a:chExt cx="3867150" cy="2457449"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="219" name="テキスト ボックス 218"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3971925" y="7858125"/>
+            <a:ext cx="3867150" cy="2457449"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ci</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>サーバの選択肢</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="133" name="グループ化 132"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4195763" y="8123676"/>
+            <a:ext cx="1581150" cy="2084240"/>
+            <a:chOff x="5091113" y="4210051"/>
+            <a:chExt cx="1581150" cy="2085975"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="141" name="角丸四角形 140"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5091113" y="4210051"/>
+              <a:ext cx="1581150" cy="2085975"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 7828"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>GitBucket + Jenkins</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="143" name="角丸四角形 142"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5329238" y="4962525"/>
+              <a:ext cx="1162050" cy="314324"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 21460"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>GitBucket</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="144" name="角丸四角形 143"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5329238" y="5381625"/>
+              <a:ext cx="1162050" cy="314324"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 21460"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>Nexus</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="145" name="角丸四角形 144"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5329238" y="5800725"/>
+              <a:ext cx="1162050" cy="314324"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 21460"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>Jenkins</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>or</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>Concourse</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="153" name="角丸四角形 152"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5329238" y="4543425"/>
+              <a:ext cx="1162050" cy="314324"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 21460"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>httpd</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="212" name="角丸四角形 211"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6129338" y="8114150"/>
+            <a:ext cx="1581150" cy="2084240"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 7828"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>GitLab</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="213" name="角丸四角形 212"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6348413" y="8875801"/>
+            <a:ext cx="1162050" cy="314063"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 21460"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>GitLab</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="216" name="角丸四角形 215"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6348413" y="9294553"/>
+            <a:ext cx="1162050" cy="314063"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 21460"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Nexus</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="218" name="角丸四角形 217"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6348413" y="8457050"/>
+            <a:ext cx="1162050" cy="314063"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 21460"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>httpd</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>225238</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="角丸四角形 133"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4147297" y="6485405"/>
+          <a:ext cx="1780615" cy="439829"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5795"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DLM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15580,8 +16127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P36:AR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AZ23" sqref="AZ23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -15630,9 +16177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P36:AR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="BY1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CJ37" sqref="CJ37"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>

--- a/doc/images/work.xlsx
+++ b/doc/images/work.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303995\git\github\Fintan-contents\collaborage\doc\images\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE57DDD-A8DC-47BD-98C0-45DD28B75AE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="24570" windowHeight="12120" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
     <sheet name="url" sheetId="15" r:id="rId2"/>
     <sheet name="aws" sheetId="14" r:id="rId3"/>
+    <sheet name="AWSコンソール" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,6 +98,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -112,7 +122,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4097" name="AutoShape 1" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII="/>
+        <xdr:cNvPr id="4097" name="AutoShape 1" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -154,7 +170,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4098" name="AutoShape 2" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII="/>
+        <xdr:cNvPr id="4098" name="AutoShape 2" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -196,7 +218,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4100" name="AutoShape 4" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII="/>
+        <xdr:cNvPr id="4100" name="AutoShape 4" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -238,7 +266,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="71" name="グループ化 70"/>
+        <xdr:cNvPr id="71" name="グループ化 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -251,7 +285,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="34" name="グループ化 33"/>
+          <xdr:cNvPr id="34" name="グループ化 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -264,7 +304,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="35" name="角丸四角形 34"/>
+            <xdr:cNvPr id="35" name="角丸四角形 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -334,7 +380,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="角丸四角形 35"/>
+            <xdr:cNvPr id="36" name="角丸四角形 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -393,7 +445,13 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="37" name="グループ化 36"/>
+            <xdr:cNvPr id="37" name="グループ化 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -406,7 +464,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="66" name="角丸四角形 65"/>
+              <xdr:cNvPr id="66" name="角丸四角形 65">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -471,7 +535,13 @@
           </xdr:sp>
           <xdr:pic>
             <xdr:nvPicPr>
-              <xdr:cNvPr id="67" name="図 66"/>
+              <xdr:cNvPr id="67" name="図 66">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvPicPr>
                 <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               </xdr:cNvPicPr>
@@ -506,7 +576,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="角丸四角形 37"/>
+            <xdr:cNvPr id="38" name="角丸四角形 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -582,7 +658,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="39" name="角丸四角形 38"/>
+            <xdr:cNvPr id="39" name="角丸四角形 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -688,7 +770,13 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="40" name="グループ化 39"/>
+            <xdr:cNvPr id="40" name="グループ化 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -701,7 +789,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="64" name="角丸四角形 63"/>
+              <xdr:cNvPr id="64" name="角丸四角形 63">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -766,7 +860,13 @@
           </xdr:sp>
           <xdr:pic>
             <xdr:nvPicPr>
-              <xdr:cNvPr id="65" name="図 64"/>
+              <xdr:cNvPr id="65" name="図 64">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvPicPr>
                 <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               </xdr:cNvPicPr>
@@ -801,7 +901,13 @@
         </xdr:grpSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
+            <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="64" idx="2"/>
               <a:endCxn id="43" idx="0"/>
@@ -840,7 +946,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="42" name="角丸四角形 41"/>
+            <xdr:cNvPr id="42" name="角丸四角形 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -905,7 +1017,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="角丸四角形 42"/>
+            <xdr:cNvPr id="43" name="角丸四角形 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1003,7 +1121,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="角丸四角形 43"/>
+            <xdr:cNvPr id="44" name="角丸四角形 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1094,7 +1218,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="45" name="角丸四角形 44"/>
+            <xdr:cNvPr id="45" name="角丸四角形 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1153,7 +1283,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="46" name="角丸四角形 45"/>
+            <xdr:cNvPr id="46" name="角丸四角形 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1212,7 +1348,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="47" name="角丸四角形 46"/>
+            <xdr:cNvPr id="47" name="角丸四角形 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1271,7 +1413,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
+            <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="45" idx="3"/>
               <a:endCxn id="46" idx="1"/>
@@ -1310,7 +1458,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
+            <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="46" idx="3"/>
               <a:endCxn id="47" idx="1"/>
@@ -1349,7 +1503,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="50" name="角丸四角形 49"/>
+            <xdr:cNvPr id="50" name="角丸四角形 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1408,7 +1568,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="51" name="角丸四角形 50"/>
+            <xdr:cNvPr id="51" name="角丸四角形 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1484,7 +1650,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="52" name="角丸四角形 51"/>
+            <xdr:cNvPr id="52" name="角丸四角形 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1582,7 +1754,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="53" name="角丸四角形 52"/>
+            <xdr:cNvPr id="53" name="角丸四角形 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1640,7 +1818,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="54" name="直線矢印コネクタ 53"/>
+            <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="47" idx="0"/>
               <a:endCxn id="53" idx="2"/>
@@ -1679,7 +1863,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="55" name="直線矢印コネクタ 54"/>
+            <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="43" idx="2"/>
               <a:endCxn id="45" idx="0"/>
@@ -1718,7 +1908,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="56" name="直線矢印コネクタ 55"/>
+            <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="66" idx="2"/>
               <a:endCxn id="53" idx="0"/>
@@ -1757,7 +1953,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="57" name="角丸四角形 56"/>
+            <xdr:cNvPr id="57" name="角丸四角形 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1822,7 +2024,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
+            <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="67" idx="1"/>
               <a:endCxn id="65" idx="3"/>
@@ -1861,7 +2069,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="59" name="角丸四角形 58"/>
+            <xdr:cNvPr id="59" name="角丸四角形 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1926,7 +2140,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="60" name="角丸四角形 59"/>
+            <xdr:cNvPr id="60" name="角丸四角形 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1991,7 +2211,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="61" name="テキスト ボックス 60"/>
+            <xdr:cNvPr id="61" name="テキスト ボックス 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2153,7 +2379,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="62" name="テキスト ボックス 61"/>
+            <xdr:cNvPr id="62" name="テキスト ボックス 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2264,7 +2496,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="63" name="角丸四角形 62"/>
+            <xdr:cNvPr id="63" name="角丸四角形 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2363,7 +2601,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="テキスト ボックス 94"/>
+          <xdr:cNvPr id="95" name="テキスト ボックス 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2503,7 +2747,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2516,7 +2766,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="70" name="グループ化 69"/>
+          <xdr:cNvPr id="70" name="グループ化 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2529,7 +2785,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="80" name="角丸四角形 79"/>
+            <xdr:cNvPr id="80" name="角丸四角形 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2596,7 +2858,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="76" name="角丸四角形 75"/>
+            <xdr:cNvPr id="76" name="角丸四角形 75">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2691,7 +2959,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="81" name="角丸四角形 80"/>
+            <xdr:cNvPr id="81" name="角丸四角形 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2750,7 +3024,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="82" name="角丸四角形 81"/>
+            <xdr:cNvPr id="82" name="角丸四角形 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2809,7 +3089,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="83" name="角丸四角形 82"/>
+            <xdr:cNvPr id="83" name="角丸四角形 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2923,7 +3209,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="84" name="角丸四角形 83"/>
+            <xdr:cNvPr id="84" name="角丸四角形 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3070,7 +3362,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="85" name="角丸四角形 84"/>
+            <xdr:cNvPr id="85" name="角丸四角形 84">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3162,7 +3460,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="86" name="角丸四角形 85"/>
+            <xdr:cNvPr id="86" name="角丸四角形 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3254,7 +3558,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="87" name="角丸四角形 86"/>
+            <xdr:cNvPr id="87" name="角丸四角形 86">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3341,7 +3651,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="88" name="角丸四角形 87"/>
+            <xdr:cNvPr id="88" name="角丸四角形 87">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3428,7 +3744,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="90" name="角丸四角形 89"/>
+            <xdr:cNvPr id="90" name="角丸四角形 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3520,7 +3842,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="93" name="角丸四角形 92"/>
+            <xdr:cNvPr id="93" name="角丸四角形 92">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3612,7 +3940,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="94" name="角丸四角形 93"/>
+            <xdr:cNvPr id="94" name="角丸四角形 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3704,7 +4038,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="89" name="テキスト ボックス 88"/>
+            <xdr:cNvPr id="89" name="テキスト ボックス 88">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3768,7 +4108,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="92" name="テキスト ボックス 91"/>
+            <xdr:cNvPr id="92" name="テキスト ボックス 91">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3878,7 +4224,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="68" name="テキスト ボックス 67"/>
+          <xdr:cNvPr id="68" name="テキスト ボックス 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3969,7 +4321,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="94" name="グループ化 93"/>
+        <xdr:cNvPr id="94" name="グループ化 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3982,7 +4340,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="角丸四角形 8"/>
+          <xdr:cNvPr id="9" name="角丸四角形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4061,7 +4425,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="角丸四角形 12"/>
+          <xdr:cNvPr id="13" name="角丸四角形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4127,7 +4497,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="角丸四角形 13"/>
+          <xdr:cNvPr id="14" name="角丸四角形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4193,7 +4569,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="角丸四角形 14"/>
+          <xdr:cNvPr id="15" name="角丸四角形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4259,7 +4641,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4433,7 +4821,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="角丸四角形 20"/>
+          <xdr:cNvPr id="21" name="角丸四角形 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4499,7 +4893,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="角丸四角形 44"/>
+          <xdr:cNvPr id="45" name="角丸四角形 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4614,7 +5014,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="テキスト ボックス 45"/>
+          <xdr:cNvPr id="46" name="テキスト ボックス 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4674,7 +5080,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
+          <xdr:cNvPr id="47" name="テキスト ボックス 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4727,7 +5139,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="角丸四角形 58"/>
+          <xdr:cNvPr id="59" name="角丸四角形 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4806,7 +5224,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="60" name="角丸四角形 59"/>
+          <xdr:cNvPr id="60" name="角丸四角形 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4872,7 +5296,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="角丸四角形 60"/>
+          <xdr:cNvPr id="61" name="角丸四角形 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4938,7 +5368,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="角丸四角形 61"/>
+          <xdr:cNvPr id="62" name="角丸四角形 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5004,7 +5440,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="角丸四角形 62"/>
+          <xdr:cNvPr id="63" name="角丸四角形 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5070,7 +5512,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="角丸四角形 63"/>
+          <xdr:cNvPr id="64" name="角丸四角形 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5185,7 +5633,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="テキスト ボックス 64"/>
+          <xdr:cNvPr id="65" name="テキスト ボックス 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5245,7 +5699,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="テキスト ボックス 65"/>
+          <xdr:cNvPr id="66" name="テキスト ボックス 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5298,7 +5758,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="テキスト ボックス 73"/>
+          <xdr:cNvPr id="74" name="テキスト ボックス 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5544,7 +6010,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="テキスト ボックス 74"/>
+          <xdr:cNvPr id="75" name="テキスト ボックス 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5858,7 +6330,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="77" name="直線矢印コネクタ 76"/>
+          <xdr:cNvPr id="77" name="直線矢印コネクタ 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="14" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -5895,7 +6373,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="82" name="テキスト ボックス 81"/>
+          <xdr:cNvPr id="82" name="テキスト ボックス 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5946,7 +6430,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="83" name="直線矢印コネクタ 82"/>
+          <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="60" idx="1"/>
             <a:endCxn id="14" idx="3"/>
@@ -5984,7 +6474,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="84" name="テキスト ボックス 83"/>
+          <xdr:cNvPr id="84" name="テキスト ボックス 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6035,7 +6531,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="87" name="直線矢印コネクタ 86"/>
+          <xdr:cNvPr id="87" name="直線矢印コネクタ 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="60" idx="3"/>
             <a:endCxn id="62" idx="3"/>
@@ -6075,7 +6577,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="テキスト ボックス 92"/>
+          <xdr:cNvPr id="93" name="テキスト ボックス 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6147,7 +6655,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="104" name="グループ化 103"/>
+        <xdr:cNvPr id="104" name="グループ化 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6160,7 +6674,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="100" name="グループ化 99"/>
+          <xdr:cNvPr id="100" name="グループ化 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6173,7 +6693,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="97" name="テキスト ボックス 96"/>
+            <xdr:cNvPr id="97" name="テキスト ボックス 96">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6266,7 +6792,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="96" name="角丸四角形 95"/>
+            <xdr:cNvPr id="96" name="角丸四角形 95">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6321,7 +6853,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="98" name="角丸四角形 97"/>
+            <xdr:cNvPr id="98" name="角丸四角形 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6377,7 +6915,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="角丸四角形 56"/>
+          <xdr:cNvPr id="57" name="角丸四角形 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6445,7 +6989,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="58" name="角丸四角形 57"/>
+          <xdr:cNvPr id="58" name="角丸四角形 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6504,7 +7054,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="角丸四角形 58"/>
+          <xdr:cNvPr id="59" name="角丸四角形 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6563,7 +7119,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="60" name="角丸四角形 59"/>
+          <xdr:cNvPr id="60" name="角丸四角形 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6722,7 +7284,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="角丸四角形 60"/>
+          <xdr:cNvPr id="61" name="角丸四角形 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6855,7 +7423,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="角丸四角形 61"/>
+          <xdr:cNvPr id="62" name="角丸四角形 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6947,7 +7521,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="角丸四角形 65"/>
+          <xdr:cNvPr id="66" name="角丸四角形 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7013,7 +7593,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="67" name="角丸四角形 66"/>
+          <xdr:cNvPr id="67" name="角丸四角形 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7079,7 +7665,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="68" name="角丸四角形 67"/>
+          <xdr:cNvPr id="68" name="角丸四角形 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7145,7 +7737,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="69" name="角丸四角形 68"/>
+          <xdr:cNvPr id="69" name="角丸四角形 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7237,7 +7835,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="70" name="角丸四角形 69"/>
+          <xdr:cNvPr id="70" name="角丸四角形 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7295,7 +7899,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="72" name="角丸四角形 71"/>
+          <xdr:cNvPr id="72" name="角丸四角形 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7361,7 +7971,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="角丸四角形 73"/>
+          <xdr:cNvPr id="74" name="角丸四角形 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7427,7 +8043,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="角丸四角形 75"/>
+          <xdr:cNvPr id="76" name="角丸四角形 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7493,7 +8115,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="角丸四角形 78"/>
+          <xdr:cNvPr id="79" name="角丸四角形 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7559,7 +8187,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="角丸四角形 79"/>
+          <xdr:cNvPr id="80" name="角丸四角形 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7625,7 +8259,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="81" name="角丸四角形 80"/>
+          <xdr:cNvPr id="81" name="角丸四角形 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7691,7 +8331,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="82" name="直線矢印コネクタ 81"/>
+          <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="62" idx="0"/>
             <a:endCxn id="72" idx="2"/>
@@ -7730,7 +8376,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="83" name="直線矢印コネクタ 82"/>
+          <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="80" idx="0"/>
             <a:endCxn id="62" idx="2"/>
@@ -7769,7 +8421,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="84" name="直線矢印コネクタ 83"/>
+          <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="61" idx="0"/>
             <a:endCxn id="76" idx="2"/>
@@ -7808,7 +8466,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="85" name="直線矢印コネクタ 84"/>
+          <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="81" idx="0"/>
             <a:endCxn id="61" idx="2"/>
@@ -7847,7 +8511,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="86" name="直線矢印コネクタ 85"/>
+          <xdr:cNvPr id="86" name="直線矢印コネクタ 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="79" idx="2"/>
             <a:endCxn id="69" idx="0"/>
@@ -7886,7 +8556,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="角丸四角形 86"/>
+          <xdr:cNvPr id="87" name="角丸四角形 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7962,7 +8638,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="角丸四角形 87"/>
+          <xdr:cNvPr id="88" name="角丸四角形 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8083,7 +8765,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="89" name="角丸四角形 88"/>
+          <xdr:cNvPr id="89" name="角丸四角形 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8141,7 +8829,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="角丸四角形 91"/>
+          <xdr:cNvPr id="92" name="角丸四角形 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8359,7 +9053,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="角丸四角形 92"/>
+          <xdr:cNvPr id="93" name="角丸四角形 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8578,7 +9278,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="角丸四角形 93"/>
+          <xdr:cNvPr id="94" name="角丸四角形 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8710,7 +9416,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="角丸四角形 94"/>
+          <xdr:cNvPr id="95" name="角丸四角形 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8792,7 +9504,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8805,7 +9523,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="グループ化 2"/>
+          <xdr:cNvPr id="3" name="グループ化 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8818,7 +9542,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="119" name="グループ化 118"/>
+            <xdr:cNvPr id="119" name="グループ化 118">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -8831,7 +9561,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="106" name="角丸四角形 105"/>
+              <xdr:cNvPr id="106" name="角丸四角形 105">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -8889,7 +9625,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="107" name="角丸四角形 106"/>
+              <xdr:cNvPr id="107" name="角丸四角形 106">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -8981,7 +9723,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="108" name="角丸四角形 107"/>
+              <xdr:cNvPr id="108" name="角丸四角形 107">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9084,7 +9832,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="109" name="角丸四角形 108"/>
+              <xdr:cNvPr id="109" name="角丸四角形 108">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9176,7 +9930,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="110" name="角丸四角形 109"/>
+              <xdr:cNvPr id="110" name="角丸四角形 109">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9308,7 +10068,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="111" name="角丸四角形 110"/>
+              <xdr:cNvPr id="111" name="角丸四角形 110">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9389,7 +10155,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="112" name="角丸四角形 111"/>
+              <xdr:cNvPr id="112" name="角丸四角形 111">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9569,7 +10341,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="113" name="角丸四角形 112"/>
+              <xdr:cNvPr id="113" name="角丸四角形 112">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9727,7 +10505,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="114" name="角丸四角形 113"/>
+              <xdr:cNvPr id="114" name="角丸四角形 113">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9899,7 +10683,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="115" name="角丸四角形 114"/>
+              <xdr:cNvPr id="115" name="角丸四角形 114">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -10028,7 +10818,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="116" name="角丸四角形 115"/>
+              <xdr:cNvPr id="116" name="角丸四角形 115">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -10185,7 +10981,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="117" name="角丸四角形 116"/>
+              <xdr:cNvPr id="117" name="角丸四角形 116">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -10273,7 +11075,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="118" name="角丸四角形 117"/>
+              <xdr:cNvPr id="118" name="角丸四角形 117">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -10362,7 +11170,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="101" name="角丸四角形 100"/>
+            <xdr:cNvPr id="101" name="角丸四角形 100">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10484,7 +11298,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="角丸四角形 89"/>
+          <xdr:cNvPr id="90" name="角丸四角形 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10788,7 +11608,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="55" name="グループ化 54"/>
+        <xdr:cNvPr id="55" name="グループ化 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -10801,7 +11627,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="角丸四角形 101"/>
+          <xdr:cNvPr id="102" name="角丸四角形 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10879,7 +11711,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="グループ化 3"/>
+          <xdr:cNvPr id="4" name="グループ化 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -10892,7 +11730,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="91" name="角丸四角形 90"/>
+            <xdr:cNvPr id="91" name="角丸四角形 90">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10959,7 +11803,13 @@
         </xdr:sp>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="99" name="図 98"/>
+            <xdr:cNvPr id="99" name="図 98">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
             </xdr:cNvPicPr>
@@ -10994,7 +11844,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="角丸四角形 102"/>
+          <xdr:cNvPr id="103" name="角丸四角形 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11086,7 +11942,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="角丸四角形 104"/>
+          <xdr:cNvPr id="105" name="角丸四角形 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11152,7 +12014,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="120" name="角丸四角形 119"/>
+          <xdr:cNvPr id="120" name="角丸四角形 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11228,7 +12096,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="121" name="直線矢印コネクタ 120"/>
+          <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="105" idx="1"/>
             <a:endCxn id="120" idx="3"/>
@@ -11267,7 +12141,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="角丸四角形 121"/>
+          <xdr:cNvPr id="122" name="角丸四角形 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11324,7 +12204,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="角丸四角形 122"/>
+          <xdr:cNvPr id="123" name="角丸四角形 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11430,7 +12316,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="124" name="直線矢印コネクタ 123"/>
+          <xdr:cNvPr id="124" name="直線矢印コネクタ 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="120" idx="2"/>
             <a:endCxn id="123" idx="0"/>
@@ -11469,7 +12361,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="125" name="角丸四角形 124"/>
+          <xdr:cNvPr id="125" name="角丸四角形 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11526,7 +12424,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="126" name="角丸四角形 125"/>
+          <xdr:cNvPr id="126" name="角丸四角形 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11593,7 +12497,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="127" name="角丸四角形 126"/>
+          <xdr:cNvPr id="127" name="角丸四角形 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11696,7 +12606,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="128" name="直線矢印コネクタ 127"/>
+          <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="123" idx="3"/>
             <a:endCxn id="132" idx="1"/>
@@ -11735,7 +12651,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="129" name="角丸四角形 128"/>
+          <xdr:cNvPr id="129" name="角丸四角形 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11830,7 +12752,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="130" name="角丸四角形 129"/>
+          <xdr:cNvPr id="130" name="角丸四角形 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11925,7 +12853,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="131" name="角丸四角形 130"/>
+          <xdr:cNvPr id="131" name="角丸四角形 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11982,7 +12916,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="132" name="角丸四角形 131"/>
+          <xdr:cNvPr id="132" name="角丸四角形 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12066,7 +13006,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="135" name="直線矢印コネクタ 134"/>
+          <xdr:cNvPr id="135" name="直線矢印コネクタ 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000087000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="132" idx="3"/>
             <a:endCxn id="127" idx="1"/>
@@ -12105,7 +13051,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="138" name="テキスト ボックス 137"/>
+          <xdr:cNvPr id="138" name="テキスト ボックス 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12341,7 +13293,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="グループ化 21"/>
+        <xdr:cNvPr id="22" name="グループ化 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -12354,7 +13312,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="162" name="角丸四角形 161"/>
+          <xdr:cNvPr id="162" name="角丸四角形 161">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12432,7 +13396,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="157" name="角丸四角形 156"/>
+          <xdr:cNvPr id="157" name="角丸四角形 156">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12499,7 +13469,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="158" name="図 157"/>
+          <xdr:cNvPr id="158" name="図 157">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -12533,7 +13509,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="159" name="角丸四角形 158"/>
+          <xdr:cNvPr id="159" name="角丸四角形 158">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12695,7 +13677,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="160" name="角丸四角形 159"/>
+          <xdr:cNvPr id="160" name="角丸四角形 159">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12762,7 +13750,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="161" name="角丸四角形 160"/>
+          <xdr:cNvPr id="161" name="角丸四角形 160">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12828,7 +13822,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="163" name="角丸四角形 162"/>
+          <xdr:cNvPr id="163" name="角丸四角形 162">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12894,7 +13894,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="164" name="角丸四角形 163"/>
+          <xdr:cNvPr id="164" name="角丸四角形 163">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12960,7 +13966,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="165" name="直線矢印コネクタ 164"/>
+          <xdr:cNvPr id="165" name="直線矢印コネクタ 164">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="159" idx="3"/>
             <a:endCxn id="163" idx="1"/>
@@ -12999,7 +14011,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="166" name="角丸四角形 165"/>
+          <xdr:cNvPr id="166" name="角丸四角形 165">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -13064,7 +14082,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="167" name="直線矢印コネクタ 166"/>
+          <xdr:cNvPr id="167" name="直線矢印コネクタ 166">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="164" idx="0"/>
             <a:endCxn id="163" idx="2"/>
@@ -13103,7 +14127,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="169" name="直線矢印コネクタ 168"/>
+          <xdr:cNvPr id="169" name="直線矢印コネクタ 168">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="158" idx="3"/>
             <a:endCxn id="164" idx="1"/>
@@ -13142,7 +14172,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="170" name="角丸四角形 169"/>
+          <xdr:cNvPr id="170" name="角丸四角形 169">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -13207,7 +14243,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="171" name="角丸四角形 170"/>
+          <xdr:cNvPr id="171" name="角丸四角形 170">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -13272,7 +14314,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="172" name="グループ化 171"/>
+          <xdr:cNvPr id="172" name="グループ化 171">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -13285,7 +14333,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="174" name="角丸四角形 173"/>
+            <xdr:cNvPr id="174" name="角丸四角形 173">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AE000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13353,7 +14407,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="175" name="角丸四角形 174"/>
+            <xdr:cNvPr id="175" name="角丸四角形 174">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AF000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13412,7 +14472,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="178" name="角丸四角形 177"/>
+            <xdr:cNvPr id="178" name="角丸四角形 177">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B2000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13504,7 +14570,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="179" name="角丸四角形 178"/>
+            <xdr:cNvPr id="179" name="角丸四角形 178">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B3000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13596,7 +14668,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="180" name="角丸四角形 179"/>
+            <xdr:cNvPr id="180" name="角丸四角形 179">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B4000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13702,7 +14780,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="181" name="角丸四角形 180"/>
+            <xdr:cNvPr id="181" name="角丸四角形 180">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B5000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13768,7 +14852,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="182" name="角丸四角形 181"/>
+            <xdr:cNvPr id="182" name="角丸四角形 181">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B6000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13874,7 +14964,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="183" name="角丸四角形 182"/>
+            <xdr:cNvPr id="183" name="角丸四角形 182">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B7000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13940,7 +15036,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="184" name="角丸四角形 183"/>
+            <xdr:cNvPr id="184" name="角丸四角形 183">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B8000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14006,7 +15108,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="185" name="角丸四角形 184"/>
+            <xdr:cNvPr id="185" name="角丸四角形 184">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B9000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14072,7 +15180,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="186" name="角丸四角形 185"/>
+            <xdr:cNvPr id="186" name="角丸四角形 185">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14164,7 +15278,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="187" name="角丸四角形 186"/>
+            <xdr:cNvPr id="187" name="角丸四角形 186">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BB000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14222,7 +15342,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="189" name="角丸四角形 188"/>
+            <xdr:cNvPr id="189" name="角丸四角形 188">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BD000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14288,7 +15414,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="191" name="角丸四角形 190"/>
+            <xdr:cNvPr id="191" name="角丸四角形 190">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BF000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14354,7 +15486,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="192" name="角丸四角形 191"/>
+            <xdr:cNvPr id="192" name="角丸四角形 191">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C0000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14420,7 +15558,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="193" name="角丸四角形 192"/>
+            <xdr:cNvPr id="193" name="角丸四角形 192">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C1000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14486,7 +15630,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="196" name="角丸四角形 195"/>
+            <xdr:cNvPr id="196" name="角丸四角形 195">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C4000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14552,7 +15702,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="197" name="角丸四角形 196"/>
+            <xdr:cNvPr id="197" name="角丸四角形 196">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C5000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14618,7 +15774,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="198" name="角丸四角形 197"/>
+            <xdr:cNvPr id="198" name="角丸四角形 197">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C6000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14684,7 +15846,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="199" name="直線矢印コネクタ 198"/>
+            <xdr:cNvPr id="199" name="直線矢印コネクタ 198">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C7000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="179" idx="0"/>
               <a:endCxn id="189" idx="2"/>
@@ -14723,7 +15891,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="200" name="直線矢印コネクタ 199"/>
+            <xdr:cNvPr id="200" name="直線矢印コネクタ 199">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C8000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="197" idx="0"/>
               <a:endCxn id="179" idx="2"/>
@@ -14762,7 +15936,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="201" name="直線矢印コネクタ 200"/>
+            <xdr:cNvPr id="201" name="直線矢印コネクタ 200">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C9000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="178" idx="0"/>
               <a:endCxn id="193" idx="2"/>
@@ -14801,7 +15981,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="202" name="直線矢印コネクタ 201"/>
+            <xdr:cNvPr id="202" name="直線矢印コネクタ 201">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CA000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="198" idx="0"/>
               <a:endCxn id="178" idx="2"/>
@@ -14840,7 +16026,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="203" name="直線矢印コネクタ 202"/>
+            <xdr:cNvPr id="203" name="直線矢印コネクタ 202">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CB000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="196" idx="2"/>
               <a:endCxn id="186" idx="0"/>
@@ -14880,7 +16072,13 @@
       </xdr:grpSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="214" name="直線矢印コネクタ 213"/>
+          <xdr:cNvPr id="214" name="直線矢印コネクタ 213">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="164" idx="3"/>
             <a:endCxn id="174" idx="1"/>
@@ -14919,7 +16117,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="215" name="角丸四角形 214"/>
+          <xdr:cNvPr id="215" name="角丸四角形 214">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15000,7 +16204,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="グループ化 5"/>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -15013,7 +16223,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="219" name="テキスト ボックス 218"/>
+          <xdr:cNvPr id="219" name="テキスト ボックス 218">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15089,7 +16305,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="133" name="グループ化 132"/>
+          <xdr:cNvPr id="133" name="グループ化 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000085000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -15102,7 +16324,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="141" name="角丸四角形 140"/>
+            <xdr:cNvPr id="141" name="角丸四角形 140">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15169,7 +16397,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="143" name="角丸四角形 142"/>
+            <xdr:cNvPr id="143" name="角丸四角形 142">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15227,7 +16461,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="144" name="角丸四角形 143"/>
+            <xdr:cNvPr id="144" name="角丸四角形 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15293,7 +16533,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="145" name="角丸四角形 144"/>
+            <xdr:cNvPr id="145" name="角丸四角形 144">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15399,7 +16645,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="153" name="角丸四角形 152"/>
+            <xdr:cNvPr id="153" name="角丸四角形 152">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000099000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15466,7 +16718,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="212" name="角丸四角形 211"/>
+          <xdr:cNvPr id="212" name="角丸四角形 211">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15533,7 +16791,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="213" name="角丸四角形 212"/>
+          <xdr:cNvPr id="213" name="角丸四角形 212">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15599,7 +16863,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="216" name="角丸四角形 215"/>
+          <xdr:cNvPr id="216" name="角丸四角形 215">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15665,7 +16935,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="218" name="角丸四角形 217"/>
+          <xdr:cNvPr id="218" name="角丸四角形 217">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15747,7 +17023,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="角丸四角形 133"/>
+        <xdr:cNvPr id="134" name="角丸四角形 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15838,8 +17120,123 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>122615</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB93B84C-44A1-43DF-B4CF-139C12928DB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="171450"/>
+          <a:ext cx="9676190" cy="3361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370094C2-3125-4BC1-9EE2-74A75C6803CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790825" y="3105150"/>
+          <a:ext cx="2066924" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15881,7 +17278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15914,9 +17311,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15949,6 +17363,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -16124,12 +17555,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="P36:AR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16154,7 +17583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
@@ -16174,10 +17603,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="P36:AR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16199,4 +17628,20 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3575AB70-5DB1-4C76-9158-F02BB6A211FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/images/work.xlsx
+++ b/doc/images/work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303995\git\github\Fintan-contents\collaborage\doc\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE57DDD-A8DC-47BD-98C0-45DD28B75AE3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA35748-8039-4918-A82C-F5667E2C1D05}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17124,23 +17124,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>122615</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104355</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>75482</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>75719</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB93B84C-44A1-43DF-B4CF-139C12928DB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65D4447-8CC6-4622-BC27-342189CB804A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17156,8 +17156,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="171450"/>
-          <a:ext cx="9676190" cy="3361905"/>
+          <a:off x="161925" y="171450"/>
+          <a:ext cx="5742857" cy="3847619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17168,16 +17168,126 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1B5358-39B6-472B-B981-C6F0DF75DF09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="2895600"/>
+          <a:ext cx="3752850" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>103548</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>18619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9ECE833-F66E-4913-B65C-C525EED2C401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="4286250"/>
+          <a:ext cx="9819048" cy="3447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17192,8 +17302,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2790825" y="3105150"/>
-          <a:ext cx="2066924" cy="457200"/>
+          <a:off x="2981325" y="7239000"/>
+          <a:ext cx="3429000" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -17635,7 +17745,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="AH51" sqref="AH51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/images/work.xlsx
+++ b/doc/images/work.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303995\git\github\Fintan-contents\collaborage\doc\images\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA35748-8039-4918-A82C-F5667E2C1D05}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="24570" windowHeight="12120" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
     <sheet name="url" sheetId="15" r:id="rId2"/>
     <sheet name="aws" sheetId="14" r:id="rId3"/>
+    <sheet name="AWSコンソール" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,6 +98,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -112,7 +122,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4097" name="AutoShape 1" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII="/>
+        <xdr:cNvPr id="4097" name="AutoShape 1" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -154,7 +170,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4098" name="AutoShape 2" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII="/>
+        <xdr:cNvPr id="4098" name="AutoShape 2" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -196,7 +218,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4100" name="AutoShape 4" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII="/>
+        <xdr:cNvPr id="4100" name="AutoShape 4" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -238,7 +266,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="71" name="グループ化 70"/>
+        <xdr:cNvPr id="71" name="グループ化 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -251,7 +285,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="34" name="グループ化 33"/>
+          <xdr:cNvPr id="34" name="グループ化 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -264,7 +304,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="35" name="角丸四角形 34"/>
+            <xdr:cNvPr id="35" name="角丸四角形 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -334,7 +380,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="角丸四角形 35"/>
+            <xdr:cNvPr id="36" name="角丸四角形 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -393,7 +445,13 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="37" name="グループ化 36"/>
+            <xdr:cNvPr id="37" name="グループ化 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -406,7 +464,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="66" name="角丸四角形 65"/>
+              <xdr:cNvPr id="66" name="角丸四角形 65">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -471,7 +535,13 @@
           </xdr:sp>
           <xdr:pic>
             <xdr:nvPicPr>
-              <xdr:cNvPr id="67" name="図 66"/>
+              <xdr:cNvPr id="67" name="図 66">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvPicPr>
                 <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               </xdr:cNvPicPr>
@@ -506,7 +576,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="角丸四角形 37"/>
+            <xdr:cNvPr id="38" name="角丸四角形 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -582,7 +658,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="39" name="角丸四角形 38"/>
+            <xdr:cNvPr id="39" name="角丸四角形 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -688,7 +770,13 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="40" name="グループ化 39"/>
+            <xdr:cNvPr id="40" name="グループ化 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -701,7 +789,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="64" name="角丸四角形 63"/>
+              <xdr:cNvPr id="64" name="角丸四角形 63">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -766,7 +860,13 @@
           </xdr:sp>
           <xdr:pic>
             <xdr:nvPicPr>
-              <xdr:cNvPr id="65" name="図 64"/>
+              <xdr:cNvPr id="65" name="図 64">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvPicPr>
                 <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               </xdr:cNvPicPr>
@@ -801,7 +901,13 @@
         </xdr:grpSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
+            <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="64" idx="2"/>
               <a:endCxn id="43" idx="0"/>
@@ -840,7 +946,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="42" name="角丸四角形 41"/>
+            <xdr:cNvPr id="42" name="角丸四角形 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -905,7 +1017,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="角丸四角形 42"/>
+            <xdr:cNvPr id="43" name="角丸四角形 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1003,7 +1121,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="角丸四角形 43"/>
+            <xdr:cNvPr id="44" name="角丸四角形 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1094,7 +1218,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="45" name="角丸四角形 44"/>
+            <xdr:cNvPr id="45" name="角丸四角形 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1153,7 +1283,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="46" name="角丸四角形 45"/>
+            <xdr:cNvPr id="46" name="角丸四角形 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1212,7 +1348,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="47" name="角丸四角形 46"/>
+            <xdr:cNvPr id="47" name="角丸四角形 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1271,7 +1413,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
+            <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="45" idx="3"/>
               <a:endCxn id="46" idx="1"/>
@@ -1310,7 +1458,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
+            <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="46" idx="3"/>
               <a:endCxn id="47" idx="1"/>
@@ -1349,7 +1503,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="50" name="角丸四角形 49"/>
+            <xdr:cNvPr id="50" name="角丸四角形 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1408,7 +1568,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="51" name="角丸四角形 50"/>
+            <xdr:cNvPr id="51" name="角丸四角形 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1484,7 +1650,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="52" name="角丸四角形 51"/>
+            <xdr:cNvPr id="52" name="角丸四角形 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1582,7 +1754,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="53" name="角丸四角形 52"/>
+            <xdr:cNvPr id="53" name="角丸四角形 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1640,7 +1818,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="54" name="直線矢印コネクタ 53"/>
+            <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="47" idx="0"/>
               <a:endCxn id="53" idx="2"/>
@@ -1679,7 +1863,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="55" name="直線矢印コネクタ 54"/>
+            <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="43" idx="2"/>
               <a:endCxn id="45" idx="0"/>
@@ -1718,7 +1908,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="56" name="直線矢印コネクタ 55"/>
+            <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="66" idx="2"/>
               <a:endCxn id="53" idx="0"/>
@@ -1757,7 +1953,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="57" name="角丸四角形 56"/>
+            <xdr:cNvPr id="57" name="角丸四角形 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1822,7 +2024,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
+            <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="67" idx="1"/>
               <a:endCxn id="65" idx="3"/>
@@ -1861,7 +2069,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="59" name="角丸四角形 58"/>
+            <xdr:cNvPr id="59" name="角丸四角形 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1926,7 +2140,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="60" name="角丸四角形 59"/>
+            <xdr:cNvPr id="60" name="角丸四角形 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1991,7 +2211,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="61" name="テキスト ボックス 60"/>
+            <xdr:cNvPr id="61" name="テキスト ボックス 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2153,7 +2379,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="62" name="テキスト ボックス 61"/>
+            <xdr:cNvPr id="62" name="テキスト ボックス 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2264,7 +2496,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="63" name="角丸四角形 62"/>
+            <xdr:cNvPr id="63" name="角丸四角形 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2363,7 +2601,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="テキスト ボックス 94"/>
+          <xdr:cNvPr id="95" name="テキスト ボックス 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2503,7 +2747,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2516,7 +2766,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="70" name="グループ化 69"/>
+          <xdr:cNvPr id="70" name="グループ化 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2529,7 +2785,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="80" name="角丸四角形 79"/>
+            <xdr:cNvPr id="80" name="角丸四角形 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2596,7 +2858,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="76" name="角丸四角形 75"/>
+            <xdr:cNvPr id="76" name="角丸四角形 75">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2691,7 +2959,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="81" name="角丸四角形 80"/>
+            <xdr:cNvPr id="81" name="角丸四角形 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2750,7 +3024,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="82" name="角丸四角形 81"/>
+            <xdr:cNvPr id="82" name="角丸四角形 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2809,7 +3089,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="83" name="角丸四角形 82"/>
+            <xdr:cNvPr id="83" name="角丸四角形 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2923,7 +3209,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="84" name="角丸四角形 83"/>
+            <xdr:cNvPr id="84" name="角丸四角形 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3070,7 +3362,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="85" name="角丸四角形 84"/>
+            <xdr:cNvPr id="85" name="角丸四角形 84">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3162,7 +3460,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="86" name="角丸四角形 85"/>
+            <xdr:cNvPr id="86" name="角丸四角形 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3254,7 +3558,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="87" name="角丸四角形 86"/>
+            <xdr:cNvPr id="87" name="角丸四角形 86">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3341,7 +3651,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="88" name="角丸四角形 87"/>
+            <xdr:cNvPr id="88" name="角丸四角形 87">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3428,7 +3744,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="90" name="角丸四角形 89"/>
+            <xdr:cNvPr id="90" name="角丸四角形 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3520,7 +3842,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="93" name="角丸四角形 92"/>
+            <xdr:cNvPr id="93" name="角丸四角形 92">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3612,7 +3940,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="94" name="角丸四角形 93"/>
+            <xdr:cNvPr id="94" name="角丸四角形 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3704,7 +4038,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="89" name="テキスト ボックス 88"/>
+            <xdr:cNvPr id="89" name="テキスト ボックス 88">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3768,7 +4108,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="92" name="テキスト ボックス 91"/>
+            <xdr:cNvPr id="92" name="テキスト ボックス 91">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3878,7 +4224,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="68" name="テキスト ボックス 67"/>
+          <xdr:cNvPr id="68" name="テキスト ボックス 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3969,7 +4321,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="94" name="グループ化 93"/>
+        <xdr:cNvPr id="94" name="グループ化 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3982,7 +4340,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="角丸四角形 8"/>
+          <xdr:cNvPr id="9" name="角丸四角形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4061,7 +4425,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="角丸四角形 12"/>
+          <xdr:cNvPr id="13" name="角丸四角形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4127,7 +4497,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="角丸四角形 13"/>
+          <xdr:cNvPr id="14" name="角丸四角形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4193,7 +4569,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="角丸四角形 14"/>
+          <xdr:cNvPr id="15" name="角丸四角形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4259,7 +4641,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4433,7 +4821,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="角丸四角形 20"/>
+          <xdr:cNvPr id="21" name="角丸四角形 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4499,7 +4893,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="角丸四角形 44"/>
+          <xdr:cNvPr id="45" name="角丸四角形 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4614,7 +5014,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="テキスト ボックス 45"/>
+          <xdr:cNvPr id="46" name="テキスト ボックス 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4674,7 +5080,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
+          <xdr:cNvPr id="47" name="テキスト ボックス 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4727,7 +5139,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="角丸四角形 58"/>
+          <xdr:cNvPr id="59" name="角丸四角形 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4806,7 +5224,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="60" name="角丸四角形 59"/>
+          <xdr:cNvPr id="60" name="角丸四角形 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4872,7 +5296,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="角丸四角形 60"/>
+          <xdr:cNvPr id="61" name="角丸四角形 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4938,7 +5368,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="角丸四角形 61"/>
+          <xdr:cNvPr id="62" name="角丸四角形 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5004,7 +5440,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="角丸四角形 62"/>
+          <xdr:cNvPr id="63" name="角丸四角形 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5070,7 +5512,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="角丸四角形 63"/>
+          <xdr:cNvPr id="64" name="角丸四角形 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5185,7 +5633,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="テキスト ボックス 64"/>
+          <xdr:cNvPr id="65" name="テキスト ボックス 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5245,7 +5699,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="テキスト ボックス 65"/>
+          <xdr:cNvPr id="66" name="テキスト ボックス 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5298,7 +5758,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="テキスト ボックス 73"/>
+          <xdr:cNvPr id="74" name="テキスト ボックス 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5544,7 +6010,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="テキスト ボックス 74"/>
+          <xdr:cNvPr id="75" name="テキスト ボックス 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5858,7 +6330,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="77" name="直線矢印コネクタ 76"/>
+          <xdr:cNvPr id="77" name="直線矢印コネクタ 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="14" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -5895,7 +6373,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="82" name="テキスト ボックス 81"/>
+          <xdr:cNvPr id="82" name="テキスト ボックス 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5946,7 +6430,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="83" name="直線矢印コネクタ 82"/>
+          <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="60" idx="1"/>
             <a:endCxn id="14" idx="3"/>
@@ -5984,7 +6474,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="84" name="テキスト ボックス 83"/>
+          <xdr:cNvPr id="84" name="テキスト ボックス 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6035,7 +6531,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="87" name="直線矢印コネクタ 86"/>
+          <xdr:cNvPr id="87" name="直線矢印コネクタ 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="60" idx="3"/>
             <a:endCxn id="62" idx="3"/>
@@ -6075,7 +6577,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="テキスト ボックス 92"/>
+          <xdr:cNvPr id="93" name="テキスト ボックス 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6147,7 +6655,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="104" name="グループ化 103"/>
+        <xdr:cNvPr id="104" name="グループ化 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -6160,7 +6674,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="100" name="グループ化 99"/>
+          <xdr:cNvPr id="100" name="グループ化 99">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -6173,7 +6693,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="97" name="テキスト ボックス 96"/>
+            <xdr:cNvPr id="97" name="テキスト ボックス 96">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6266,7 +6792,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="96" name="角丸四角形 95"/>
+            <xdr:cNvPr id="96" name="角丸四角形 95">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6321,7 +6853,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="98" name="角丸四角形 97"/>
+            <xdr:cNvPr id="98" name="角丸四角形 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6377,7 +6915,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="角丸四角形 56"/>
+          <xdr:cNvPr id="57" name="角丸四角形 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6445,7 +6989,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="58" name="角丸四角形 57"/>
+          <xdr:cNvPr id="58" name="角丸四角形 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6504,7 +7054,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="角丸四角形 58"/>
+          <xdr:cNvPr id="59" name="角丸四角形 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6563,7 +7119,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="60" name="角丸四角形 59"/>
+          <xdr:cNvPr id="60" name="角丸四角形 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6722,7 +7284,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="角丸四角形 60"/>
+          <xdr:cNvPr id="61" name="角丸四角形 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6855,7 +7423,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="角丸四角形 61"/>
+          <xdr:cNvPr id="62" name="角丸四角形 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6947,7 +7521,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="角丸四角形 65"/>
+          <xdr:cNvPr id="66" name="角丸四角形 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7013,7 +7593,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="67" name="角丸四角形 66"/>
+          <xdr:cNvPr id="67" name="角丸四角形 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7079,7 +7665,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="68" name="角丸四角形 67"/>
+          <xdr:cNvPr id="68" name="角丸四角形 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7145,7 +7737,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="69" name="角丸四角形 68"/>
+          <xdr:cNvPr id="69" name="角丸四角形 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7237,7 +7835,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="70" name="角丸四角形 69"/>
+          <xdr:cNvPr id="70" name="角丸四角形 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7295,7 +7899,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="72" name="角丸四角形 71"/>
+          <xdr:cNvPr id="72" name="角丸四角形 71">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7361,7 +7971,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="角丸四角形 73"/>
+          <xdr:cNvPr id="74" name="角丸四角形 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7427,7 +8043,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="角丸四角形 75"/>
+          <xdr:cNvPr id="76" name="角丸四角形 75">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7493,7 +8115,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="角丸四角形 78"/>
+          <xdr:cNvPr id="79" name="角丸四角形 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7559,7 +8187,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="角丸四角形 79"/>
+          <xdr:cNvPr id="80" name="角丸四角形 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7625,7 +8259,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="81" name="角丸四角形 80"/>
+          <xdr:cNvPr id="81" name="角丸四角形 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7691,7 +8331,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="82" name="直線矢印コネクタ 81"/>
+          <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="62" idx="0"/>
             <a:endCxn id="72" idx="2"/>
@@ -7730,7 +8376,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="83" name="直線矢印コネクタ 82"/>
+          <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="80" idx="0"/>
             <a:endCxn id="62" idx="2"/>
@@ -7769,7 +8421,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="84" name="直線矢印コネクタ 83"/>
+          <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="61" idx="0"/>
             <a:endCxn id="76" idx="2"/>
@@ -7808,7 +8466,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="85" name="直線矢印コネクタ 84"/>
+          <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="81" idx="0"/>
             <a:endCxn id="61" idx="2"/>
@@ -7847,7 +8511,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="86" name="直線矢印コネクタ 85"/>
+          <xdr:cNvPr id="86" name="直線矢印コネクタ 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="79" idx="2"/>
             <a:endCxn id="69" idx="0"/>
@@ -7886,7 +8556,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="角丸四角形 86"/>
+          <xdr:cNvPr id="87" name="角丸四角形 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7962,7 +8638,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="角丸四角形 87"/>
+          <xdr:cNvPr id="88" name="角丸四角形 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8083,7 +8765,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="89" name="角丸四角形 88"/>
+          <xdr:cNvPr id="89" name="角丸四角形 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8141,7 +8829,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="角丸四角形 91"/>
+          <xdr:cNvPr id="92" name="角丸四角形 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8359,7 +9053,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="角丸四角形 92"/>
+          <xdr:cNvPr id="93" name="角丸四角形 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8578,7 +9278,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="角丸四角形 93"/>
+          <xdr:cNvPr id="94" name="角丸四角形 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8710,7 +9416,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="角丸四角形 94"/>
+          <xdr:cNvPr id="95" name="角丸四角形 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -8792,7 +9504,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -8805,7 +9523,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="グループ化 2"/>
+          <xdr:cNvPr id="3" name="グループ化 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -8818,7 +9542,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="119" name="グループ化 118"/>
+            <xdr:cNvPr id="119" name="グループ化 118">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -8831,7 +9561,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="106" name="角丸四角形 105"/>
+              <xdr:cNvPr id="106" name="角丸四角形 105">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -8889,7 +9625,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="107" name="角丸四角形 106"/>
+              <xdr:cNvPr id="107" name="角丸四角形 106">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -8981,7 +9723,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="108" name="角丸四角形 107"/>
+              <xdr:cNvPr id="108" name="角丸四角形 107">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9084,7 +9832,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="109" name="角丸四角形 108"/>
+              <xdr:cNvPr id="109" name="角丸四角形 108">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9176,7 +9930,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="110" name="角丸四角形 109"/>
+              <xdr:cNvPr id="110" name="角丸四角形 109">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9308,7 +10068,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="111" name="角丸四角形 110"/>
+              <xdr:cNvPr id="111" name="角丸四角形 110">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9389,7 +10155,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="112" name="角丸四角形 111"/>
+              <xdr:cNvPr id="112" name="角丸四角形 111">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9569,7 +10341,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="113" name="角丸四角形 112"/>
+              <xdr:cNvPr id="113" name="角丸四角形 112">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9727,7 +10505,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="114" name="角丸四角形 113"/>
+              <xdr:cNvPr id="114" name="角丸四角形 113">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9899,7 +10683,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="115" name="角丸四角形 114"/>
+              <xdr:cNvPr id="115" name="角丸四角形 114">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -10028,7 +10818,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="116" name="角丸四角形 115"/>
+              <xdr:cNvPr id="116" name="角丸四角形 115">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -10185,7 +10981,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="117" name="角丸四角形 116"/>
+              <xdr:cNvPr id="117" name="角丸四角形 116">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -10273,7 +11075,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="118" name="角丸四角形 117"/>
+              <xdr:cNvPr id="118" name="角丸四角形 117">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -10362,7 +11170,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="101" name="角丸四角形 100"/>
+            <xdr:cNvPr id="101" name="角丸四角形 100">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10484,7 +11298,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="角丸四角形 89"/>
+          <xdr:cNvPr id="90" name="角丸四角形 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10788,7 +11608,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="55" name="グループ化 54"/>
+        <xdr:cNvPr id="55" name="グループ化 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -10801,7 +11627,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="角丸四角形 101"/>
+          <xdr:cNvPr id="102" name="角丸四角形 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -10879,7 +11711,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="グループ化 3"/>
+          <xdr:cNvPr id="4" name="グループ化 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -10892,7 +11730,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="91" name="角丸四角形 90"/>
+            <xdr:cNvPr id="91" name="角丸四角形 90">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10959,7 +11803,13 @@
         </xdr:sp>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="99" name="図 98"/>
+            <xdr:cNvPr id="99" name="図 98">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
             </xdr:cNvPicPr>
@@ -10994,7 +11844,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="角丸四角形 102"/>
+          <xdr:cNvPr id="103" name="角丸四角形 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11086,7 +11942,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="角丸四角形 104"/>
+          <xdr:cNvPr id="105" name="角丸四角形 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11152,7 +12014,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="120" name="角丸四角形 119"/>
+          <xdr:cNvPr id="120" name="角丸四角形 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11228,7 +12096,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="121" name="直線矢印コネクタ 120"/>
+          <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="105" idx="1"/>
             <a:endCxn id="120" idx="3"/>
@@ -11267,7 +12141,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="角丸四角形 121"/>
+          <xdr:cNvPr id="122" name="角丸四角形 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11324,7 +12204,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="角丸四角形 122"/>
+          <xdr:cNvPr id="123" name="角丸四角形 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11430,7 +12316,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="124" name="直線矢印コネクタ 123"/>
+          <xdr:cNvPr id="124" name="直線矢印コネクタ 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="120" idx="2"/>
             <a:endCxn id="123" idx="0"/>
@@ -11469,7 +12361,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="125" name="角丸四角形 124"/>
+          <xdr:cNvPr id="125" name="角丸四角形 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11526,7 +12424,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="126" name="角丸四角形 125"/>
+          <xdr:cNvPr id="126" name="角丸四角形 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11593,7 +12497,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="127" name="角丸四角形 126"/>
+          <xdr:cNvPr id="127" name="角丸四角形 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11696,7 +12606,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="128" name="直線矢印コネクタ 127"/>
+          <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="123" idx="3"/>
             <a:endCxn id="132" idx="1"/>
@@ -11735,7 +12651,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="129" name="角丸四角形 128"/>
+          <xdr:cNvPr id="129" name="角丸四角形 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11830,7 +12752,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="130" name="角丸四角形 129"/>
+          <xdr:cNvPr id="130" name="角丸四角形 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11925,7 +12853,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="131" name="角丸四角形 130"/>
+          <xdr:cNvPr id="131" name="角丸四角形 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11982,7 +12916,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="132" name="角丸四角形 131"/>
+          <xdr:cNvPr id="132" name="角丸四角形 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12066,7 +13006,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="135" name="直線矢印コネクタ 134"/>
+          <xdr:cNvPr id="135" name="直線矢印コネクタ 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000087000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="132" idx="3"/>
             <a:endCxn id="127" idx="1"/>
@@ -12105,7 +13051,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="138" name="テキスト ボックス 137"/>
+          <xdr:cNvPr id="138" name="テキスト ボックス 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12341,7 +13293,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="グループ化 21"/>
+        <xdr:cNvPr id="22" name="グループ化 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -12354,7 +13312,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="162" name="角丸四角形 161"/>
+          <xdr:cNvPr id="162" name="角丸四角形 161">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12432,7 +13396,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="157" name="角丸四角形 156"/>
+          <xdr:cNvPr id="157" name="角丸四角形 156">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12499,7 +13469,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="158" name="図 157"/>
+          <xdr:cNvPr id="158" name="図 157">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -12533,7 +13509,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="159" name="角丸四角形 158"/>
+          <xdr:cNvPr id="159" name="角丸四角形 158">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12695,7 +13677,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="160" name="角丸四角形 159"/>
+          <xdr:cNvPr id="160" name="角丸四角形 159">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12762,7 +13750,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="161" name="角丸四角形 160"/>
+          <xdr:cNvPr id="161" name="角丸四角形 160">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12828,7 +13822,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="163" name="角丸四角形 162"/>
+          <xdr:cNvPr id="163" name="角丸四角形 162">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12894,7 +13894,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="164" name="角丸四角形 163"/>
+          <xdr:cNvPr id="164" name="角丸四角形 163">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12960,7 +13966,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="165" name="直線矢印コネクタ 164"/>
+          <xdr:cNvPr id="165" name="直線矢印コネクタ 164">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="159" idx="3"/>
             <a:endCxn id="163" idx="1"/>
@@ -12999,7 +14011,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="166" name="角丸四角形 165"/>
+          <xdr:cNvPr id="166" name="角丸四角形 165">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -13064,7 +14082,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="167" name="直線矢印コネクタ 166"/>
+          <xdr:cNvPr id="167" name="直線矢印コネクタ 166">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="164" idx="0"/>
             <a:endCxn id="163" idx="2"/>
@@ -13103,7 +14127,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="169" name="直線矢印コネクタ 168"/>
+          <xdr:cNvPr id="169" name="直線矢印コネクタ 168">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="158" idx="3"/>
             <a:endCxn id="164" idx="1"/>
@@ -13142,7 +14172,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="170" name="角丸四角形 169"/>
+          <xdr:cNvPr id="170" name="角丸四角形 169">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -13207,7 +14243,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="171" name="角丸四角形 170"/>
+          <xdr:cNvPr id="171" name="角丸四角形 170">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -13272,7 +14314,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="172" name="グループ化 171"/>
+          <xdr:cNvPr id="172" name="グループ化 171">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -13285,7 +14333,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="174" name="角丸四角形 173"/>
+            <xdr:cNvPr id="174" name="角丸四角形 173">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AE000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13353,7 +14407,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="175" name="角丸四角形 174"/>
+            <xdr:cNvPr id="175" name="角丸四角形 174">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AF000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13412,7 +14472,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="178" name="角丸四角形 177"/>
+            <xdr:cNvPr id="178" name="角丸四角形 177">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B2000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13504,7 +14570,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="179" name="角丸四角形 178"/>
+            <xdr:cNvPr id="179" name="角丸四角形 178">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B3000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13596,7 +14668,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="180" name="角丸四角形 179"/>
+            <xdr:cNvPr id="180" name="角丸四角形 179">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B4000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13702,7 +14780,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="181" name="角丸四角形 180"/>
+            <xdr:cNvPr id="181" name="角丸四角形 180">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B5000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13768,7 +14852,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="182" name="角丸四角形 181"/>
+            <xdr:cNvPr id="182" name="角丸四角形 181">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B6000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13874,7 +14964,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="183" name="角丸四角形 182"/>
+            <xdr:cNvPr id="183" name="角丸四角形 182">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B7000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13940,7 +15036,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="184" name="角丸四角形 183"/>
+            <xdr:cNvPr id="184" name="角丸四角形 183">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B8000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14006,7 +15108,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="185" name="角丸四角形 184"/>
+            <xdr:cNvPr id="185" name="角丸四角形 184">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B9000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14072,7 +15180,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="186" name="角丸四角形 185"/>
+            <xdr:cNvPr id="186" name="角丸四角形 185">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14164,7 +15278,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="187" name="角丸四角形 186"/>
+            <xdr:cNvPr id="187" name="角丸四角形 186">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BB000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14222,7 +15342,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="189" name="角丸四角形 188"/>
+            <xdr:cNvPr id="189" name="角丸四角形 188">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BD000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14288,7 +15414,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="191" name="角丸四角形 190"/>
+            <xdr:cNvPr id="191" name="角丸四角形 190">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BF000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14354,7 +15486,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="192" name="角丸四角形 191"/>
+            <xdr:cNvPr id="192" name="角丸四角形 191">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C0000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14420,7 +15558,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="193" name="角丸四角形 192"/>
+            <xdr:cNvPr id="193" name="角丸四角形 192">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C1000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14486,7 +15630,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="196" name="角丸四角形 195"/>
+            <xdr:cNvPr id="196" name="角丸四角形 195">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C4000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14552,7 +15702,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="197" name="角丸四角形 196"/>
+            <xdr:cNvPr id="197" name="角丸四角形 196">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C5000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14618,7 +15774,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="198" name="角丸四角形 197"/>
+            <xdr:cNvPr id="198" name="角丸四角形 197">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C6000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14684,7 +15846,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="199" name="直線矢印コネクタ 198"/>
+            <xdr:cNvPr id="199" name="直線矢印コネクタ 198">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C7000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="179" idx="0"/>
               <a:endCxn id="189" idx="2"/>
@@ -14723,7 +15891,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="200" name="直線矢印コネクタ 199"/>
+            <xdr:cNvPr id="200" name="直線矢印コネクタ 199">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C8000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="197" idx="0"/>
               <a:endCxn id="179" idx="2"/>
@@ -14762,7 +15936,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="201" name="直線矢印コネクタ 200"/>
+            <xdr:cNvPr id="201" name="直線矢印コネクタ 200">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C9000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="178" idx="0"/>
               <a:endCxn id="193" idx="2"/>
@@ -14801,7 +15981,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="202" name="直線矢印コネクタ 201"/>
+            <xdr:cNvPr id="202" name="直線矢印コネクタ 201">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CA000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="198" idx="0"/>
               <a:endCxn id="178" idx="2"/>
@@ -14840,7 +16026,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="203" name="直線矢印コネクタ 202"/>
+            <xdr:cNvPr id="203" name="直線矢印コネクタ 202">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CB000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="196" idx="2"/>
               <a:endCxn id="186" idx="0"/>
@@ -14880,7 +16072,13 @@
       </xdr:grpSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="214" name="直線矢印コネクタ 213"/>
+          <xdr:cNvPr id="214" name="直線矢印コネクタ 213">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="164" idx="3"/>
             <a:endCxn id="174" idx="1"/>
@@ -14919,7 +16117,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="215" name="角丸四角形 214"/>
+          <xdr:cNvPr id="215" name="角丸四角形 214">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15000,7 +16204,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="グループ化 5"/>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -15013,7 +16223,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="219" name="テキスト ボックス 218"/>
+          <xdr:cNvPr id="219" name="テキスト ボックス 218">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15089,7 +16305,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="133" name="グループ化 132"/>
+          <xdr:cNvPr id="133" name="グループ化 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000085000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -15102,7 +16324,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="141" name="角丸四角形 140"/>
+            <xdr:cNvPr id="141" name="角丸四角形 140">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15169,7 +16397,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="143" name="角丸四角形 142"/>
+            <xdr:cNvPr id="143" name="角丸四角形 142">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15227,7 +16461,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="144" name="角丸四角形 143"/>
+            <xdr:cNvPr id="144" name="角丸四角形 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15293,7 +16533,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="145" name="角丸四角形 144"/>
+            <xdr:cNvPr id="145" name="角丸四角形 144">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15399,7 +16645,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="153" name="角丸四角形 152"/>
+            <xdr:cNvPr id="153" name="角丸四角形 152">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000099000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -15466,7 +16718,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="212" name="角丸四角形 211"/>
+          <xdr:cNvPr id="212" name="角丸四角形 211">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15533,7 +16791,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="213" name="角丸四角形 212"/>
+          <xdr:cNvPr id="213" name="角丸四角形 212">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15599,7 +16863,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="216" name="角丸四角形 215"/>
+          <xdr:cNvPr id="216" name="角丸四角形 215">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15665,7 +16935,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="218" name="角丸四角形 217"/>
+          <xdr:cNvPr id="218" name="角丸四角形 217">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15747,7 +17023,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="角丸四角形 133"/>
+        <xdr:cNvPr id="134" name="角丸四角形 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15838,8 +17120,233 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>75482</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>75719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65D4447-8CC6-4622-BC27-342189CB804A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="171450"/>
+          <a:ext cx="5742857" cy="3847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1B5358-39B6-472B-B981-C6F0DF75DF09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="2895600"/>
+          <a:ext cx="3752850" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>103548</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>18619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9ECE833-F66E-4913-B65C-C525EED2C401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="4286250"/>
+          <a:ext cx="9819048" cy="3447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370094C2-3125-4BC1-9EE2-74A75C6803CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="7239000"/>
+          <a:ext cx="3429000" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15881,7 +17388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15914,9 +17421,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15949,6 +17473,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -16124,12 +17665,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="P36:AR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16154,7 +17693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
@@ -16174,10 +17713,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="P36:AR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -16199,4 +17738,20 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3575AB70-5DB1-4C76-9158-F02BB6A211FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AH51" sqref="AH51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/images/work.xlsx
+++ b/doc/images/work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303995\git\github\Fintan-contents\collaborage\doc\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA35748-8039-4918-A82C-F5667E2C1D05}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9337922F-DBE7-4CA0-972D-0CA056CC7A4B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -6642,10 +6642,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>13845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
@@ -6655,10 +6655,10 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="104" name="グループ化 103">
+        <xdr:cNvPr id="100" name="グループ化 99">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6666,259 +6666,117 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2208679" y="1039347"/>
-          <a:ext cx="8133791" cy="6872504"/>
-          <a:chOff x="895350" y="2828926"/>
-          <a:chExt cx="8020051" cy="6943837"/>
+          <a:off x="7513865" y="7378031"/>
+          <a:ext cx="2736397" cy="547908"/>
+          <a:chOff x="5543551" y="9182213"/>
+          <a:chExt cx="2724150" cy="552450"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="100" name="グループ化 99">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="テキスト ボックス 96">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
           <a:xfrm>
-            <a:off x="6191251" y="9220313"/>
+            <a:off x="5543551" y="9182213"/>
             <a:ext cx="2724150" cy="552450"/>
-            <a:chOff x="5543551" y="9182213"/>
-            <a:chExt cx="2724150" cy="552450"/>
           </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="97" name="テキスト ボックス 96">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5543551" y="9182213"/>
-              <a:ext cx="2724150" cy="552450"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>　　　　</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>AWS</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>マネジメントコンソールで操作して作成</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>　　　　</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>CloudFormation</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>でテンプレートから作成</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="96" name="角丸四角形 95">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5605463" y="9267938"/>
-              <a:ext cx="314325" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 13263"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent3"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent3"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l">
-                <a:lnSpc>
-                  <a:spcPts val="1300"/>
-                </a:lnSpc>
-              </a:pPr>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="98" name="角丸四角形 97">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5605463" y="9477488"/>
-              <a:ext cx="314325" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 13263"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent3"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent3"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l">
-                <a:lnSpc>
-                  <a:spcPts val="1300"/>
-                </a:lnSpc>
-              </a:pPr>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>　　　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>AWS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>マネジメントコンソールで操作して作成</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>　　　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>CloudFormation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>でテンプレートから作成</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="角丸四角形 56">
+          <xdr:cNvPr id="96" name="角丸四角形 95">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6926,1731 +6784,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="895350" y="2828926"/>
-            <a:ext cx="7872414" cy="4495800"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 3070"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>VPC</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="58" name="角丸四角形 57">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2919412" y="3771900"/>
-            <a:ext cx="5743575" cy="3400425"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 5493"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>プライベートサブネット</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="角丸四角形 58">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="947738" y="3771900"/>
-            <a:ext cx="1857376" cy="1076326"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 8676"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>パブリックサブネット</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="60" name="角丸四角形 59">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="966788" y="4981575"/>
-            <a:ext cx="1857376" cy="952500"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 11508"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>パブリックサブネット２</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>(ALB</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>を使う際にパブリックサブネットが</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>つ以上必要なため</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="角丸四角形 60">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5091113" y="4210050"/>
-            <a:ext cx="1581150" cy="2085975"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 7828"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>EC2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>（</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ci</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>）</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>この図の下に記載</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="角丸四角形 61">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3186114" y="4200526"/>
-            <a:ext cx="1581150" cy="2133600"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 7828"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>EC2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>（</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>cq</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>）</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="角丸四角形 65">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3407569" y="5857875"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>SonarQube</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="67" name="角丸四角形 66">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3407569" y="5422900"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Rocket.Chat</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="68" name="角丸四角形 67">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3407569" y="4987925"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Redmine</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="69" name="角丸四角形 68">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6929438" y="4457700"/>
-            <a:ext cx="1581150" cy="942975"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 7828"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>EC2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>（</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>demo</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>）</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="70" name="角丸四角形 69">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7138988" y="4819650"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>デモ環境</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="72" name="角丸四角形 71">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3395663" y="3267075"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ALB</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="角丸四角形 73">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3407569" y="4552950"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>httpd</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="角丸四角形 75">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5300663" y="3267075"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ALB</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="角丸四角形 78">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7138988" y="3276600"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ALB</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="角丸四角形 79">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3395663" y="6743700"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>EBS</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="81" name="角丸四角形 80">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5300663" y="6724650"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>EBS</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="62" idx="0"/>
-            <a:endCxn id="72" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="3976688" y="3581399"/>
-            <a:ext cx="1" cy="619127"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:tailEnd type="none"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="80" idx="0"/>
-            <a:endCxn id="62" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="3976688" y="6334126"/>
-            <a:ext cx="1" cy="409574"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:tailEnd type="none"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="61" idx="0"/>
-            <a:endCxn id="76" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="5881688" y="3581399"/>
-            <a:ext cx="0" cy="628651"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:tailEnd type="none"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="81" idx="0"/>
-            <a:endCxn id="61" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="5881688" y="6296025"/>
-            <a:ext cx="0" cy="428625"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:tailEnd type="none"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="86" name="直線矢印コネクタ 85">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="79" idx="2"/>
-            <a:endCxn id="69" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7720013" y="3590924"/>
-            <a:ext cx="0" cy="866776"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:tailEnd type="none"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="角丸四角形 86">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7858125" y="7486650"/>
-            <a:ext cx="1000125" cy="514350"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 13884"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>CloudWatch</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>アラーム</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="角丸四角形 87">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6991349" y="8181973"/>
-            <a:ext cx="1666875" cy="685801"/>
+            <a:off x="5605463" y="9267938"/>
+            <a:ext cx="314325" cy="152400"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -8686,72 +6821,6 @@
                 <a:spcPts val="1300"/>
               </a:lnSpc>
             </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>SNS</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>トピック</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>　サブスクリプション</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>(email)</a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -8765,10 +6834,10 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="89" name="角丸四角形 88">
+          <xdr:cNvPr id="98" name="角丸四角形 97">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8776,81 +6845,17 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1290638" y="4219575"/>
-            <a:ext cx="1162050" cy="314324"/>
+            <a:off x="5605463" y="9477488"/>
+            <a:ext cx="314325" cy="152400"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
+              <a:gd name="adj" fmla="val 13263"/>
             </a:avLst>
           </a:prstGeom>
           <a:ln w="3175">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>踏み台</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="角丸四角形 91">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4714877" y="7486650"/>
-            <a:ext cx="2028824" cy="1628775"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 4878"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
@@ -8877,607 +6882,9 @@
                 <a:spcPts val="1300"/>
               </a:lnSpc>
             </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ロール</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ポリシー</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  cloudwatch:PutMetricData</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:CreateSnapshot</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:CreateTags</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:DeleteSnapshot</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:DescribeTags</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:DescribeVolumes</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  sns:Publish</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="角丸四角形 92">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="904875" y="7467600"/>
-            <a:ext cx="1800225" cy="1447801"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 5795"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Route53</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ドメイン</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>　*</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>.xxxxx.xxx</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>レコードセット</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  nop-cq.xxxxx.xxx</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  nop-ci.xxxxx.xxx</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>nop-demo.xxxxx.xxx</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="角丸四角形 93">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2816225" y="7486650"/>
-            <a:ext cx="1771651" cy="723900"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 8427"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Certificate Manager</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>SSL</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>証明書</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  *</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>.xxxxx.xxx</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="角丸四角形 94">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6838952" y="7496176"/>
-            <a:ext cx="923924" cy="438149"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 8427"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>キーペア</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -9487,6 +6894,3014 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>109539</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>110560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="角丸四角形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="1047751"/>
+          <a:ext cx="7872414" cy="4492059"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3070"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>VPC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="角丸四角形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4205287" y="1989940"/>
+          <a:ext cx="5743575" cy="3397595"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5493"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プライベートサブネット</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223839</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="角丸四角形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2233613" y="1989940"/>
+          <a:ext cx="1857376" cy="1075430"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8676"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パブリックサブネット</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>122034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242889</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>168866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="角丸四角形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2252663" y="3198609"/>
+          <a:ext cx="1857376" cy="951707"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11508"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パブリックサブネット２</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(ALB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>を使う際にパブリックサブネットが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>つ以上必要なため</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>168565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="角丸四角形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6376988" y="2427726"/>
+          <a:ext cx="1581150" cy="2084239"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7828"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>EC2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ci</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>この図の下に記載</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>52389</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>65535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>252414</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>157844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="角丸四角形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4493760" y="2400521"/>
+          <a:ext cx="1587954" cy="2427294"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7828"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>EC2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>cq</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>92730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>54769</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="角丸四角形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693444" y="4074180"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SonarQube</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>20067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>54769</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>153154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="角丸四角形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693444" y="3639567"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Rocket.Chat</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>54769</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80490</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="角丸四角形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693444" y="3204953"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Redmine</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>178835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="角丸四角形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8215313" y="2675170"/>
+          <a:ext cx="1581150" cy="942190"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7828"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>EC2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>demo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>141219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>195263</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>93331</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="角丸四角形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8424863" y="3036819"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>デモ環境</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>170822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="角丸四角形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4681538" y="1485535"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ALB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>55715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>54769</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7827</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="角丸四角形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693444" y="2770340"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>httpd</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>170822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="角丸四角形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6586538" y="1485535"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ALB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>195263</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="角丸四角形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8424863" y="1495052"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ALB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="角丸四角形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4681538" y="4959267"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>EBS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="角丸四角形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6586538" y="4940233"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>EBS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>170822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>65535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="0"/>
+          <a:endCxn id="72" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5287736" y="1787351"/>
+          <a:ext cx="1" cy="613170"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>157844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72942</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="0"/>
+          <a:endCxn id="62" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5287736" y="4827815"/>
+          <a:ext cx="1" cy="94713"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>170823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="0"/>
+          <a:endCxn id="76" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7167563" y="1799598"/>
+          <a:ext cx="0" cy="628128"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>168565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53908</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="0"/>
+          <a:endCxn id="61" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7167563" y="4511965"/>
+          <a:ext cx="0" cy="428268"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141520</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線矢印コネクタ 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="2"/>
+          <a:endCxn id="69" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9005888" y="1809115"/>
+          <a:ext cx="0" cy="866055"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>62371</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="角丸四角形 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="5701599"/>
+          <a:ext cx="1000125" cy="513922"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13884"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>CloudWatch</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>アラーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>62219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>23549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="角丸四角形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8277224" y="6396344"/>
+          <a:ext cx="1666875" cy="685230"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13263"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SNS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>トピック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　サブスクリプション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(email)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>84568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>36680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="角丸四角形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2576513" y="2437243"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>踏み台</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200027</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>90019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="角丸四角形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000752" y="5701599"/>
+          <a:ext cx="2028824" cy="1627420"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4878"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ロール</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ポリシー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  cloudwatch:PutMetricData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:CreateSnapshot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:CreateTags</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:DeleteSnapshot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:DescribeTags</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:DescribeVolumes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  sns:Publish</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>72340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>71136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="角丸四角形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="5682565"/>
+          <a:ext cx="1800225" cy="1446596"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5795"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Route53</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ドメイン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>.xxxxx.xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レコードセット</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  nop-cq.xxxxx.xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  nop-ci.xxxxx.xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>nop-demo.xxxxx.xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>73026</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>90772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="角丸四角形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4102100" y="5701599"/>
+          <a:ext cx="1771651" cy="723298"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8427"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Certificate Manager</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SSL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>証明書</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>.xxxxx.xxx</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>176726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="角丸四角形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8124827" y="5711117"/>
+          <a:ext cx="923924" cy="437784"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8427"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キーペア</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -9515,8 +9930,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11562229" y="888626"/>
-          <a:ext cx="8067115" cy="6170520"/>
+          <a:off x="11457214" y="889907"/>
+          <a:ext cx="7992836" cy="6181725"/>
           <a:chOff x="9191625" y="381000"/>
           <a:chExt cx="7953375" cy="6238875"/>
         </a:xfrm>
@@ -11619,8 +12034,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21870521" y="1558178"/>
-          <a:ext cx="8162365" cy="4396628"/>
+          <a:off x="21670736" y="1560739"/>
+          <a:ext cx="8088086" cy="4404632"/>
           <a:chOff x="9153525" y="9839325"/>
           <a:chExt cx="8048626" cy="4438650"/>
         </a:xfrm>
@@ -13304,8 +13719,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21348326" y="8257054"/>
-          <a:ext cx="9677400" cy="3425640"/>
+          <a:off x="21153664" y="8271782"/>
+          <a:ext cx="9590315" cy="3431723"/>
           <a:chOff x="1866900" y="12639675"/>
           <a:chExt cx="9544050" cy="3457576"/>
         </a:xfrm>
@@ -16215,8 +16630,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4364131" y="8077760"/>
-          <a:ext cx="3922059" cy="2435598"/>
+          <a:off x="4325711" y="8092168"/>
+          <a:ext cx="3886200" cy="2439760"/>
           <a:chOff x="3971925" y="7858125"/>
           <a:chExt cx="3867150" cy="2457449"/>
         </a:xfrm>
@@ -17107,6 +17522,93 @@
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>94987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="角丸四角形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BA356C-B3E2-4003-A84B-E875043B8672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695825" y="4486275"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Subversion</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -17696,9 +18198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17716,7 +18216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="P36:AR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -17744,9 +18244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3575AB70-5DB1-4C76-9158-F02BB6A211FF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AH51" sqref="AH51"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/doc/images/work.xlsx
+++ b/doc/images/work.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303995\git\github\Fintan-contents\collaborage\doc\images\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9337922F-DBE7-4CA0-972D-0CA056CC7A4B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F974BF1-6F02-4301-B6E8-119261FDE44E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18250,6 +18245,7 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/images/work.xlsx
+++ b/doc/images/work.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F974BF1-6F02-4301-B6E8-119261FDE44E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="24570" windowHeight="12120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
     <sheet name="url" sheetId="15" r:id="rId2"/>
     <sheet name="aws" sheetId="14" r:id="rId3"/>
+    <sheet name="AWSコンソール" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,6 +93,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -112,7 +117,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4097" name="AutoShape 1" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII="/>
+        <xdr:cNvPr id="4097" name="AutoShape 1" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -154,7 +165,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4098" name="AutoShape 2" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII="/>
+        <xdr:cNvPr id="4098" name="AutoShape 2" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -196,7 +213,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4100" name="AutoShape 4" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII="/>
+        <xdr:cNvPr id="4100" name="AutoShape 4" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAucAAADbCAYAAADOID83AAAgAElEQVR4Xu3df3Af9X3n8ZccEImJWhpCZuo0FPVSlINBNq11pBblguuO7eRiQWIMA457EXRq3Ct2M8FxB9u92s4NEZ1W9k2MOzViCja/J0HqBMsdx84RxIWRU0BcCOKaOpSLLiFRQk7BgIKtm/3+0n53P7v73q++q+/3az2VP2Kkz3f383l8Prv7+u5+drdpampqSvwggAACCCCAAAIIIIBAzQWaCOc17wMqgAACCCCAAAIIIIBAToBwzkBAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEECOeMAQQQQAABBBBAAAEE6kSAcF4nHUE1EEAAAQQQQAABBBAgnDMGEEAAAQQQQAABBBCoEwHCeZ10BNVAAAEEEEAAAQQQQIBwzhhAAAEEEEAAAQQQQKBOBAjnddIRVAMBBBBAAAEEEEAAAcI5YwABBBBAAAEEEEAAgToRIJzXSUdQDQQQQAABBBBAAAEEGi+cP9erxbccmGHPdWrbE7vV9YHpxYwPbNTyHUNly+3cfli7V50/w3XN0scnxzQyeFSD3zyk50+MafT7E6UVt1zUpgWtC7Xy969W51Udaj0vuU4N7zExqv49w2q9Y63ak5sbU2JEvYu7VT7i1qrv+KYZLbdi36q1a0YooQ9X3J7qViO7pc2yu9XTWi47GOOSXfvtdX06fltw6xxX/23LtfPp8uU21L7YSEIxBBBAIEqAcF6QaZiDXLAnT41r+N6t2rxvWNNxPG7At6h99Re06/YVWvCu6HKN6zGh0a/1asdf92v05MxDtFQn4fxUtdtV3Z1iw46XJIYauVs9reWSmpn53wnnmROzAgQQOHMECOeNHM5Pjan/9tXa+eRk6hHZfHG39u3foPb57o82zEHfV/2Jl/vV+1+/pP6Xix5nRjjPpl2ph0zsBxpxvCQJ1NLd6mktl9TWzP9OOM+cmBUggMCZI0A4b9hwPqmRPTep+74TFY/G5qt26R//ZoVcE3ca5qBfan02Z7hrf+Y8q3ZVPGycH2y88ZLU/tq6Wz2t5ZJam/nfCeeZE7MCBBA4cwTOjHDunLt45nSSsyWvPqLua3s0UvbHZrVdu0lfWLdSH1nQomZv2sqpSU2MvaRD9+5Uz0AwyDdrzZe/oc1XNIdW0TAH/QYN5/bRWduQaK/nmVaytu7W7c9arua9QziveRdQAQQQaBwBwnnj9FVZTU88fJOuu2u07Hfttz+qvutbI1o0qeG/Wa1bHxgr//vyHh374lK1BD7VMAd9wnmDjuB6rzbhvKo9RDivKicLQwCBM1sgHM79T/34zgmNvjY9n7n5A21qff8HtXBZp1YsW6n2BeEzrn6uTAKeeSefruOsdR3Zs1jd9/mXXZjX/OqQevf0qv/YCU2oWedffKVW/tHNunlZm1qCN16emtCJoUN69B/7NfzsqE687i3P+0yrFrZ3qeuGleq8KBiXy9sTroe0dv9xbVoU027n2fa1uvuZTeoI1DHWI1f/ft3zcL+GnvHaK3lj48qrunTdumvUkTAuymroLev4UR362qCGjj9fGm+5sXbpQnV98jqt7GwNGxYXkubpPRVdYckmpCWOt2q0qwrjzLoVJbansKBwOd+TkyZOaOjwo+ofGNbwi9PjauHilVrb3ZW4TeRWMdP9VxXcx18c1NcHjqr/xRMaK7Qj3/wWtV6yQK2XJG/jlXtKiU82qfa48G6aPXK/7h84Vr4/WLFGa2/oUrv3VCzzfjviaS07Dmv3xxvkyVnWjYZyCCCAQIRAWTgfO7JTt+/wnnJh8fKmUGzXXVuin/phPcBY1lYqY97Jp1qqrHV1hfO7B1p14IadGgq5LdCG+wbUfYmvLq8OaucXdvhuWnTXs+WKTdp951q1R2R0Vzhf+sVj6lkeF+pP6JF116nnRf86w4+V9P4a6dH5knr/7HYdKN10Gax/izpu26fd69oU/9VNGn+mT1vv2Kvh3JeTmJ/z2rV2+13adJXj4FyFMBW/8gYN51UaZ9atyLr9RIXzjmd36vYvxu17mtV2y27t++OOyC9qVdl/zWQ8jQ9r7xc2qu852w3aLcs2q2/7GrU6bsqu3DMhnFd5XEx+7xFt/ZMeHY3chlu0dEufdn24X0uCj8CN+LI8/DeLdesD5SMv8cSDdaBSDgEEEGgAgVI4nziyVcu3DMp2WJluWfNV2/TYXV3Ox/JZDzCpnOounLer/bIRjbzgaMVlmzVw7xotKPxp8sU+rV+/VyOmLz+SLupSz55tWlpcgG8Vo/eu0k1fDkxRmd+u7rvu0oYrZn6GydV3HTd2q+WJvpgDcbGCzVpx52HtWhb1RWFSo/eu12e/PJJivHnhbJ/uXd9eHvpnEqZMA6/xwnk1x5mJKO7LXOA9AeFx1aY1179fjz88ZBoLnXcMaPe14Q2iavuvSsfTyRH1ruvWge9bxfLlovaf1n2ntZy3rmqPi8nvP6Lb1/U4TkoEDZrVvugjGnmu/A4ZRYTz8ImHBdrwwIC6L05nS2kEEECgUQXy4XxyWD3LbtUjvtDYvKhbu//yM1rou7Fw7IVH1Pv53kA4iw5iaQ4cZsC6C+fRNS87k/36UW1dtVmD1mBeXOySbRr4W8eXnxf7tGrdXgXief6A/4F2LV3Vpa4VV2rhh87P3xia8sfVd6kWsWCDDn61W22OdY8NbNTqHbYwVr7OZnVsOai7V/vm1VcapsyNabBwXu1xZnSybuszHlfz1+juI5vV4b8sU839V4XjaXT/Kt20z7U1JgE2a+3+p0PT0Wbi6ZzWUu1xMTmivTd2qy/ll5EyjYhwHjv1KYmTvyOAAAJngEAunE8+3aMltz3ia06Htg3crS7HGVu92Kebtn9dH1zcqcWXX6mOy1v1wfMLTwYJgFgPMKkc0xw8XQs2HxDcl4dd00nc9V+qXUd6tCL3Ns5JDd/1Md36cPl1ifwXoFvU8aHm3FNVxl54XPfs6lF/2QEv6svPuAY/90ltTXzGeX7++x98aqm6rliqNm9dhp/oENWijvU92nZjhxZ4l+MnxzTct1Ub9wfPgkec7XqtXxs/vlPl72KVPIu7tl6vjsKXiclXR/S48wkzrdrwwKOOs2jZhOjGepRiFuPMMFhmdOa8uPxmtd+yW7vWFcbV694bXrdqp+MJQ933Pq0Nl03XK5v9V4rxNHFUW6/erEE/Ve4q1i7dsnhB6alJ46OHtHf7zsD2LbXd/qgOBm7ktu47beWqPy7GHuvWqjsDZ8LVrLYbt2tX94r8W4gnxzU6uFdbd/TL+cDXiH2xdxXk6i1+Tfd9MbaRSSkEEECg8QRy4Ty8g3fMla6XttVrOL9ojXbv2aRO182Qrw9q87KtOuo3vGyzHt2/Rq3BM8tj/doYnL++ZJsO7+kKP4+8kkvp57VrxbqbdfO1nWqNmZ4eFc7d0wrcN3GtuPNYaGqL6wxj9NSoiGe5L9ulY3euCDxhJkWYSjWWs1muLVR5FU2x/qzGmcHL2p5U4+rUqPquvUl7Ayekg2eGs9l/pXD3cujEuH7wvWENH31Kx44Pq/mGB7Q7MKXHY5w4vFlX31G2J5BresdMPENnzqs+Llz3rkit6/p08LbAtDPP5nivVq8/EL7KF3WDdmgfX42XiRkGMUUQQACBOhHIhfPwmQpJ89u04pYNuvkTHWo933a2dVbaVJfhvF2bH+vTmovcAi5fV3AtfnpkzxJ13+c/y96pXYd3a4VrKvnEiA5s2ajeZ7xnpqT4md+mrjvu0rblrssj7htCNX+t+o5tUrtjqorr0Y6hkOCYfiD5rzA46j85ot7V3TpQFtBcN7GmC1N2qWyWaw1facJ5puMsAczaHmc4jxlXI/uWqHt/+RWn4LjKZv+VTb9bn1oyE0+Lz4z2P+OD2rh8a/nVL9d0o9KYmdDglqu19UhgEEWF87F+3bpqp4aLxaNOTtg3YkoigAACDSWQn3MeMdWg2JL8Y/JWqnNJhzoWt+WnM9Tqpx7DecLBIzwVpk2bHzsYGeZdB+akpxWMP9ev++/bq0eeHDfdWJfvvmZ1bn9Mu1eFA7ozREU8E91bkilMvLBXSz7bV16/mGUWh5jrbHs4XGQUptKcuU6xTZi8csuzt2s2xllUE63tyWRcZbL/srsndvupSY2/+ryeGuxX/8BRjfgeT5v7rCOkzsQzGM6rPi5c++DVu/X0ls7IJzSNffVWrfpiKW7nyaLCebA/r9qlwxFvMk60pwACCCDQgAKFp7VMamTfTereb3sVfMtlK3TdDZ/RZ1zP8M4aoQ5vCG2+pU9Pr2+PaLl7ykdapsRnFxcXODmuE88+paFjQzr05FNlz6l3r9M9h9sZomKeE24JE64yHXcM6G7H0zf8dQ3PKZYW/OlBDXy2zVesimGqDCqb5Vq88tWwrn+Wx1lgMFnbk8W48u7pqP7+y+ru2KpOjmn0+LCGnx7SoePDGv1+wlWtTMN59cfF+BMbtXx7+V0jidtxqv12wL6i9xOk3cNSHgEEEKgfgennnJ+a0MjBzdq4Zzj3UhnTz3kd2nDnLnUvnvmj+0zr8wql2smbl2o78+tFpdBLiJJe+lH9g6O9VZJOjuvEC0/p0Nf61f+NEY07nhbTfP3d+sbtHWVnvdIGaUs4s5Rxts3U5zMIU7Gg2SzXbmFdf23HmbU9rnJxX26ty1XV919W9+nBM/HyoO7Z97cpr15lfea8+uPC3Cf+7cq0DRc/MKq+VdP3GrhumE21D6QwAggg0GAC4TeEvjai/ocO6MDA0cKbK5Na1Kq1+w9q06JZmpeeaiefVPfpv1sPOA0Xzv0Ekyc0eOdmbQ09ASP8NASrR3HxlvKWMoTz4Bdda0isfgizbz3GaU3W6U++FaceM1Xbf1nd85Ude2Kzbtp+1HFio/C0pBWd6lzcoY6JR7TkTw+U0zbamfOBjVq+o/zMeeKVvVT77fKxnLjsNAOVsggggEADCITDua/Sk6+O6ugzh/TU4CEdfS5mLnPgZTuZtjvVTt5eE2sIcIXzNXue1uYlUV9OXKHJ/VZOc21PTWpi7IReevF5DT97XEPHh9Wx5Zg2LTYswfkEjHB9rB4zDeeJl8O9pz2EHvXJtJa+45tUPpEqg3FmGE5p+t8rm8W4iqrmzPZfKcK5a8679yjFXdt0/UdbVXY/vXH/ZXVKLlf9ceG6ATc8zSzQK8Z2Fz/lf0vo2n3Hbfu2FOOVoggggEA9C8SG87KKF29q+srd+tIDwWdazzBsphFKuZO3Ljr5IJdfkiucJ92sGX4d9czeeOeqw4L1BzVwi38OdlTLbQdrq0eqcMYNoaVOsfvaQ2K1x5l120kTuu3tzq89bfnIOqfef9ndw2/rXaC1+x7TpsWOL+zG/Ze13ZZyVR8XFWzHae81mN7HNSv4XPs045KyCCCAQCMK2MN5qXVj6l+/SjuP+5tLON+0KLr7XTdQtX3uUR280femyxSjx/3ouBXqGdilpbmXHsX8OB9nuEI9x3Zpqe+555aDvn8tpvKTQ+pZslH+111V9ihF1+MX7WEqBXWKGzLTLdXklf86qN7F3SqfCOF+7nO1x1maFlnbYy2X6ktfmorKuv+yutu+7BaraH1qidXJUq7q48L50qU12j24WZ3OJ3lFTLniRs9UI5fCCCAwdwTy4fzkhMa+/5JGXhzWyDNDGv5Oq259ICrouV5AQTiPC+d69RF1X9ujsvfpze/Utod2h9/CenJIPat79fylHeq8ol0dl7TrIxctUIv/oOd6qYj3YMSrtumxu7q0wPEc8vyQjnipj+NRkJaDfupwHvWm1Mh6u+vbvLxHh7+4lJcQBfdT1R5nKfaD1vFiLZcqnGey/5pJOG/Wmj3fCE91Ozms3htuDTyzP+sbQqWq73/kfm551EuIxgY2avWOofAjXgnnKbYwiiKAwFwSaJp656Up11v4mi/u0qbNN2vlJQvUUrg6O/naqA79/Q596auj5TvaBRt0cKBbwUkVaQ/EJnjjZWHTsnyFrHWtZFqLNKGjdyzX5sPlL1PReUu16a83ac1l+Vd8T746rP1/tVF9zwXKeb5f7VZbKXR7oXW1uu8LvDrRC+gXr9CG9Tdr5eJWnV8M9JMTGvuXIQ1++UvaG3pZUbNW3Hk49CZPq0eqEOUVfrlP1924N/Q67+ZF3bpr6/Xq+ND5BYsRPX7vTvWEbl6NeuFT+RMe8vVaoLVfPqhNV7RI3uPt/m+L2v5dzGtRnYPGGtLSjTi7b5p2VXuc2dtkbY+1nHlcRbxFdOb7L6u7dPSOq7X5cMBqfqc279ulNZe0SKcmNXb8gHbesVfDrztMb7xbxz/XUfYHq5OtXPXHhXcfyMdueyQQuJvVduN27epeoVbvCt7kuEYH92rrjv7Q9p5rrDOcp7sSYR+hlEQAAQQaR6D0htDlWwZTvLzG30B3uPNK2A4cKbEaMpx7j3Po18ZVO8vfqmdqeoTvyRH1ruvWge+bFhJZKOpse9q+s5dP90zq8opHvzRJGtfg55Zr65MxHgkvSnF/0hXOKzAPXJ2we6VsV7XHmbGp1vZYy5nDuSRvmlf1919297cPb9bVdxw1SjmKzeDKldmz2uPi1Jj6b1+tnU8GTiSkUSCcp9GiLAIIzCGB6ZcQ7blJ3ffZXkLk94m6lEk4D4+isSM7tXFLxFmkiEEX56uxQW1et1VHXWfjDIO4+eJu7du/Qe2OeaLmg35hPanKn5rQ8N+v18b9gSswsXVuVvuf3qt9n22LfgvhY91adWfZ5KHyJVb0GvBah3NpLGW7qj7ODGPJ2v/WcmnCeeR0LUO947Yvs7t39v76m7TX8kX5vKXquuIl9R/2XfWav1Z9xzap3TcdzepkLedRVH1cvD6snltu1SOWdl/Uqc75Qxp60dcphHPDCKUIAgjMRQHfDaGTOjHwJW39636NOl5UE8ZpUcdtu9VzU7taIuY4pzlwmPEb9cx5oYETLxzQ5j/vdV/e9iPMb1PX53fpC6taI8NorvjJE+rfs1O9j43YXx6lFnWs79Guz3bo/Cr1XSV9Pf5Mn7ZGXer3W1hfdjU5or7/vF57X444mxcx/Sp+7NU+nKuCdlV9nCVsoNb+t5ZLF8690tXff6VyHx9S75/drgNRY09SyxUb1LOjWwtHe7TkNv9t0Qu04b4BdV8yjWx1spYrLrnq42JiRH1/vl57g1PxfOPFOwmw+++u0dgdq7TzacK5+VhHQQQQmLMC4ae1nJrQieNHdehrgxr6l3/ViZd9zzc/r1VtbW3qXN6llVd3qDVh+m7aA4epFxo8nOfa6BkPHVL/kWMaPv68Rl8rhMmS7xpds6JdC9K818mbU/3Np3Ro6JiGg/2mFrVeskCtl3Rq8eV/oCuvbktcdtq+S1u+1NfefNwXDunxrwxq6MWXSq86b/5Am1ovXaiuT16nlZ2tkV8AQ2Pm1LhGvna/Djx0SE8Vx67nenmHupZdp5XLWwM3kiaNujoI57kxU0G7shhnEVzW/reWSx/OC5+o4v4rv62mcD81odEj9+v+gWMaeuZE/svyea3qWHK1VnzqenUtKrxganxQG5dvLZvi1rx6t76xpbP0RdzqZC1X1m3VHhe55fXrnocPafiF0fxbiIvt/sRKLV3sbb+OueScOU/a+fB3BBCYowIVPEpxjkrRbAQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKEM6tUpRDAAEEEEAAAQQQQCBjAcJ5xsAsHgEEEEAAAQQQQAABqwDh3CpFOQQQQAABBBBAAAEEMhYgnGcMzOIRQAABBBBAAAEEELAKnBnh/LleLb5F6ju+Se2Flo/sWazu+yQt2abDe7p0foxImrJW2DTlar3+NHU1l32tXxs/vlNDktbuP65Ni8yfjC6Y6+cD03839O3M1zqi3sXdUgVtMPdrqV2d2vbEbnV9YOa1Tr8ERzvrol7pW5L+E5X3cfp11cEnarIdzVK7G6ltkdtXY41H835uloZAzVeTxbGv5o2iArMt0PDhfHxgo5bvyEVAwvlsj5649VV9B5U/YPmiubSuT8dvK34dy6DxM2yD+aBV6xAc1c5a1yuDLg0tcoZ9PBtVrO46arAdVbcBcadZZn8fMZO2ubavBhyP5v3cTKwa6bMN2IeNxDtX6ko4nys9PdvtrPoOajpUdG4/rN2r4q6FVKmxM2xDwxy0COfVvcJTpeGXzWJqsB1l0xDHUs+Ats1wnzNr1L4VNcx+brZwGrAPZ4uG9dgFpsO5b0DlP249Ez29QyybvpCwPMm/I+3T0iPd2vm0t952fVQj+pakcAjzf+YhLT1yQ+EzvgYXpjr8wD+tZau0ozDFIlcycMbVtXMp+13C53PLDLTXs/jMv7nP6ge7x71zG1f/bcsD7bNMe4hy9X02sW/yNZy+KjFdY3cwDtTV6wOf2dr9fdIt+bPe8X0aEbqDl6oL1Skbb6EyYSu/c9+yo+rOXXFx1cnddinOMDyFytmvvnqWLFxn0Mp+t13a5R8L5dtmobfKx4s3xm84kTi1yNXHpXaOFacRee2uoA4ppzSVvIrDzTVtKTR2E9y7T2i5byqUf/zFtb31Ife0uOnPTI+F5HEV3pZdU73s21vEDj5pG7BsR4VFxwWuyL8lrV9S1Gcrc/U5JLUtadzEXCUq1Tl4pS5le0P7nAvvL0zTy4+lK79VPF74+9e/H7ONI/+n3VeWfcsp28ZcX26S1xl3rLScSCn7fMz2WmpXUl+WCgbqHrtPTG6n/ZgYkYnsuYySCCgfziN2bGVhJGrnVfq9LzBYlucL52X9sGSbHlp2VDd4wSl4cI4NLIWlBMN5RCf7dxqx4TxqkPh31JHtLX7YFaamFxxevyuYF8snBXTHZWvvo0VLU99EhdN8Hcp3uBHr87mVfVGJ7dOI+dYJB95QqPOt29nPZX3q9owNrZqeTx8aHr72hfrV3w7n+PHVJdWYsvWBa96/LZxHbAQRB/Zg6eQDdNx49207roOyI8jHjYdc8YJ91cO5c1xF903yFwXX9ubuC9M2kBRg/YsuWQe3D/fZadP6Kw3nhu016hiW+xK0wLK9Rp11dwet1O11taHsy29SOLeNo9DocPVj2Xbk2ucUf2dbp3V7izqUpvq8cR/gP/kXtd7pL8i2drr3F3HHxKRjNQkUgWiBpqmp56dKc3lLgcF3sCz9LuFbtaPc9Bnq+OWVfQnw6hpxYHCF6MQ552Vh0n3GICmcTx9E/RtxMTT4g0XUF5SU4dx5Wcy37ti51v46Rh9YrX0zvQNz2/l3WFE7u/IDZHmd7JdEIw6erjPR/hDgO9vtPwgkB8byqyH+M52uM2lJZ/78VxJCc+Vjz5yXnxn2t6FYJ3MfRN2UmzitpbwOsW31XXGL2jaDuyNn/R39mtrdF8S9f07bua+AOPs48GUyvu3hqzDT65zeB4RdXPtHf33j9x/+YOr+Murf5qxTP6brVLatJIzVpPVXdOY84upW+LCW8MXBt99M3F4LDxFwjuFq7XNSzDm3jSPXgd7Rj4EvaaH9SOgEV9zY9Y/T8qvSrn2VqxGpSJgAABdeSURBVIZl4dzXR67t1boPSLNPtNmm2UaLZQnnhO/KBZqmnv3bqfwTMAIDyXFGPLRjdR3UzWfY48Km68Dg3vEmh/PyA5urfHw4T/i8zyAY+FwbfezOqRgEos5smPo5xtXcN4EVBc+4lQJL1OVRyR8Y8jt/e59GnBss3eyVdNUj//nweLH2R2n9prmDwbMujukO/ga5pmokBJ6o6WJB1+grTQlPzDGE8/g6pDvrWN6/7oNesf+in5JjcQ+GWkc9I9peWYg0rC8wNkN9aA6i04rRX3Bd/WIN576rZ3FXg2LOhsdug6m+9CR8OSlRWNoWPW6m91nFbTghkIW25ZT7HHM4n8n2Fe7H0pTPolsuEH+wNC0uv3/9gXN/6+/T4j4her9q6Y+4L6FJn4/qyzTHJatt+dW9+JM7xbLWcWs6sFNojgk0/aT/tqn8006iflxnmYJz5FzfrJOWF7/hlUJ0aDpGctguO0sWeRCYXk5sOE/6fEyAs545TDpzX5I0PZ0k2jXuslx+HcZpFa5wHqybw8Xap/ZwHhXsvCWE/2Y/S1+oQWTfRl8G9Ru6L9c6zqYkzjn3TfcJ1SnGwPTlIvoKQTisRLjETRsofCT6YBbXh8GRkNI9FJ4c66pmOA+uL+4SfNDFOeXEcnBPtw24AnPkrj90BXPa33lFLbR/sm+D1jPZ8cfn5KAV/rx7TnduvH70Kcc9G+m8Y/c51nCeZhy5gMpOtH1GJwr3Mq1dt1YH7jtQmPLYqvtzT8MqeMRN3QuM3eg22rbtdJ+37ANS7BPT7LtSbKP5Nlm23zmWOGmuWSBdOPcFns7tvps4nZcLZxbOg1NbSjdoBQ4AiWfOk8J1xJmf5DNnhQ0vo3Ce13PPxY3/1l6FcB7YMUefoU2xE/SmVAQO9lF9Wt/hPNAnofnLUWfOO9W5ZEhD3k3Plnn3UVc55mw4r8C9kcJ5YdA7v0DHPs8/XVhMFc7L9veHtbt0A6M/dKRbf/J+1X2jbdK7KvJ8rn2ffdzk9rjFR/Mu2abpGzir395cdWcrnPtc1m7fphM7vPdPeG1aqqPFQL69VTt3eFfQw8e1yCN54alZ6cJ1eGn2z0+f3c8tJXLfm+K4lCacp9hGc+PoyNLEd6yYkxoF55xA9LSWCIrpnVenOp8e0lDkdJik+VZJl6x8l7vWrdXa+w7knvYRfMpBPYXzqk1ribC3TcuIcY0KfMH1uW7y9X9RqGhaS+HwWXyKTkyf2sN59NMf0lxSj9zqE+b++8di/FzkwrZQugEsMI6rdeY8MvTPdFpLYFsOuSRvy9F71qhL0IXff7j4LHvXWVv/jcuuL0WGaSZZnjl3hsUUxxjfmbq4F3llNa2lPECu1dp1B3TAe7Gb4WlXUWF59sO5fdzk6uw7gVD8Mh25X08zrcU6nS1hn2O6V8YxxEJX8Qp9GPX7NF/iZm9ay/RUm/h9bzWmtRi3U+M2alwaxRAoCUTcEBoTeoKX2GJ2UP6deHinbDighy4jhS8T1Tycl53drtINoREbvCsAOs5DRMwVLD+zFNs3rvX7+8LX5/4zfe4bZ6OCaLHm1kt/EeOlkpuzYs9E+kTNN+b6L7XGn/lzhpMZhfPyJ+vE3pRb8Q2hSeE8Yt6o8cug8+Yt/34mFyQ0/YIZ183nETf+Osd5xCMx3Qd83/iNuBckbuqCM7iEXHzjxx98Y+5nKdvuU2wDaUJXMGCXttjg23JTrD+xr139aN1enV+GXLbu7TXfvuDVyrhpaOU3AMfewDijcD6z7av8S1a+lcV9dfBKjfOmaP9jlR3bdFnAT7ih05W97J+39+VMbwgNX9VIs40asg0hFIEEgdyjFOPmIofP2CTfGGFbnmUAB+aXueZcR9ysWPac88Kd97ldr+ONojOac+4t1DkXTepc0qmhp8NvLw32SXj97ukspc8Zn9biOsuStm+c48f4CD33wdzQp86VRo8X99zu/EIsT+CI3kbcNxyVpuM4P5hwWd56E7V5WkvgS5e/TkuKV7cSzpyHHmsaPNOfHM6Dz/kvo0m8VyJuvCfcYFtakbVc8MxvxE1lvqsc7vFhnH4RN1/YPB0w+QusdRtIH84DT+MIvP+iaGNef8S+ctrY6JpiHxFXt9CDEILvd4j4YmBtb+o551HbYtwc8MTtK7iPcD+tKPhuE+s2He8bvtISefyL2hE7A7+rsPupRGUlXfvEqm+jlmxDNkUgXiDmJUQx01IsZ8RCAz64PNsA9m/47ku7wQN7/kAm/0uIsg7nnrHjrNr0SyVSPkqx0GeuIJ18WdPgmtg34Zcq5dYbeGlG1weKg8vRB0+06p7Ci5+C/Zbcp65Bm9Cu0EE/PH5jD5QR24n7zFKgvbkDePGGqumzUlHrC/1+hmfO81V3fGl23tDmbqiznfK/hCjuptSoceB+wVPULil8kA9uNxW4B14gZvnCWhqvwTG1rk+HL7pH+Rvo04TI8JcP53bsCgnms8aukwSufbhh/xDsIL9DXBA0bIO5RVfNNRTzIq4a2sbN9NKMRob2pg/n4XdMOG++LVQ2+Xjg2jb921XEGeESRvLYLWujYXuLDOfeWE/8fJq+TLNPTG5nrt6mbdQ4fkinCMQITIfzOmWyzbOuz8pbn9ZSn7XPrlaN3KfZqWSwZOvTWjJYdS0XWcmXsFrWt+7Xzbzauu+iRq7grG6vc3Sf2MjjY67Wvb7DeWjeaXsd9pP/srj1rv46bMZsVakh+nS2MKqznqgrEXP1y+GsHuyr04V1vBT/GcXk6TV13BCqVqcCWWyv7BPrtLOpllmgPsO5ZdqFuYnZF0yacxf3pIXsa1cna2iwPq0TNVs1kubxmuak2lbVCKWyONg3QrurW0fjZf7qrpSlzUGBTLZX9olzcCSdWU1uiHDeCOHWfaNl0uMkz6zBFNuaQDhvhD5tqN6JuKnJPie1oVobW9lMDvZnDo+xJe7ngxs/TDEEzAKZba/sE819QMH6E6jPcF5/TtQIAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFyAcJ45MStAAAEEEEAAAQQQQMAmQDi3OVEKAQQQQAABBBBAAIHMBQjnmROzAgQQQAABBBBAAAEEbAKEc5sTpRBAAAEEEEAAAQQQyFygaf5dT05lvhZWUBcCb3z+9+uiHlQCAQQQQAABBBBAwC3QNP+JU4Rzw+h4+e8+ZShVX0Uu/pOvTFfoO0MinNdX/1AbBBBAAAEEEEAgKEA4N44JwrkRimIIIIAAAggggAACFQsQzo10hHMjFMUQQAABBBBAAAEEKhYgnBvpCOdGKIohgAACCCCAAAIIVCxAODfSEc6NUBRDAAEEEEAAAQQQqFiAcG6kI5wboSiGAAIIIIAAAgggULHAmR/Or/lVtV3yWY2+eK+uO/8d/cMv/qP+6L3/I/T/j97zRiwi4bziMcYHEUAAAQQQQAABBIwCZ3Q4b3vfPI1e1ZIP5R+5VX/00t25UP5n/2FE93xzQic7/7j0u/kPPzFr4fyDjz+eW9cPrrmmbJ1Rvzf2ZagYj1KsVI7PIYAAAggggAACtRE4o8O5R3rdzefqGw/+XK/8/Kc696z36v3nNuf+/Zu/+j795I3JnPrUtb+uticnNPrT05G9UO0z58EgXu1g7jWEcF6bjYq1IoAAAggggAAClQqc0eH8gvnv6JVPrlLUWfGmqZO5sP6+TZ/X6H/rnbUz58UVFQN58b+DZ9Ir7dTi5wjnMxXk8wgggAACCCCAwOwKnNHh3H/m/Mcnz4qWveZXdcE/jSuuTLXPnAcDerWDOWfOZ3dDYm0IIIAAAggggEA1BM7ocJ505rwI6E19qcUNoZw5r8YQZhkIIIAAAggggMCZI1C7cJ7wFJWksGzuAm89CfPJT17/cf3mPw7M6plz5pybe5CCCCCAAAIIIIDAnBGoSTgve4pKhU9PsfTQJU0/1Km/uFPtP/r7yEcoFh+tmPRloJrTWnhai6X3KIMAAggggAACCMw9gZqEc4/Zm3JS/CnO9fbC9HdP/0ruJk3vJ3aeuLGvvJs+33jnF7mns/jX51+/ZV3VDOfGqs+4GDeEzpiQBSCAAAIIIIAAArMqULNwPqutrMLKCOdVQGQRCCCAAAIIIIAAArEChHPjACGcG6EohgACCCCAAAIIIFCxAOHcSEc4N0JRDAEEEEAAAQQQQKBiAcK5kY5wboSiGAIIIIAAAggggEDFAoRzIx3h3AhFMQQQQAABBBBAAIGKBQjnFdM12Ae/M6Q3Pv/7DVZpqosAAggggAACCMwtAcL5XOlvwvlc6WnaiQACCCCAAAINLEA4b+DOS1V1wnkqLgojgAACCCCAAAK1ECCc10K9FusknNdCnXUigAACCCCAAAKpBAjnqbgauDDhvIE7j6ojgAACCCCAwFwRIJzPlZ4mnM+VnqadCCCAAAIIINDAAoTzBu68VFUnnKfiojACCCCAAAIIIFALAcJ5LdRrsU7CeS3UWScCCCCAAAIIIJBKgHCeiquBCxPOG7jzqDoCCCCAAAIIzBUBwvlc6WnC+VzpadqJAAIIIIAAAg0sQDhv4M5LVXXCeSouCiOAAAIIIIAAArUQIJzXQr0W6ySc10KddSKAAAIIIIAAAqkECOepuBq4MOG8gTuPqiOAAAIIIIDAXBEgnM+Vniacz5Wepp0IIIAAAggg0MAChPMG7rxUVSecp+KiMAIIIIAAAgggUAsBwnkt1GuxTsJ5LdRZJwIIIIAAAgggkEqAcJ6Kq4ELE84buPOoOgIIIIAAAgjMFQHC+VzpacL5XOlp2okAAggggAACDSxAOG/gzktVdcJ5Ki4KI4AAAggggAACtRAgnNdCvRbrJJzXQp11IoAAAggggAACqQQI56m4Grgw4byBO4+qI4AAAggggMBcESCcz5WeJpzPlZ6mnQgggAACCCDQwAJN5x78P1MNXH+qLunk2c2aan53zmJ+87luE8I5YwUBBBBAAAEEEKh7gaZz/nKAcF733RRfwXe997xcgaYFv6U3zv0Vd0AnnDd4L1N9BBBAAAEEEJgLAk2Tb709dbppSk1q0pSmNG+qSf7/zoU+73++CO/93fvxyk41qfS34r+L/++V88r4f4q/C/w6V8Rbv//HVZdifYrli3WLqkdxecVlF+vjr1uxLl4Zb3nFn2Cb69HoZ29KE5On9K3vTWr9Uy9EB3TC+VzYnmkjAggggAACCDS4QNObb74ZPnPu5dPY8+nBAokf8DFFlY1ZRu5PadaR0CvVWFTiMmbHaGrqtJrmzcs1+NFn38oF9JO/vSh89pxw3uCbKtVHAAEEEEAAgbkg0HTy5Mmppqb82eKpqSl5//b+P3eG2vfvKIximeIy/Mtxfca1Dn85/7qLvy9+Jq6OwXoElxNsU7DNxWUX1xnVnno08gK69/Ptf/uBlj34kiYv/aje897zy/kJ53Nhe6aNCCCAAAIIINDgAu4z5w3SqGLgLoX4wj/KJ9IEG+N98Ygv4W5+8HPu//amwkx504QKU37ylyCi1+f9dV7hM1Hl8sv0t7L4H9PL9r5M/OhHP1LbvSM66+Lf0dSv/TrhvEHGMdVEAAEEEEAAAQRKJ4gffPDBhrsh9Oyzm3XhhR/SpZdemm9HYAaJF9p/8Ytf6K233tLp0/mzytX8mTdvnt7znvfo3HPP1bx53nz8fFg+7ZsLNE/e3P3c5YjyVTc15cJ4sWyuXPFzhXYUf5dfRuF+AG85TfkZ8cUvJcF1eOH83//D/yKcV7OzWRYCCCCAAAIIIDCLAk0//OEPGyqce2eI33zzTb3yyr/p137tPH34wx/WaS+4+qbk/OQnP9E555yjCy64QGrKz8eu6s/UaXnr8ML/+9///tz0H++neB67NPWlsNLSd4diHX3fJ/znwHNBvhDAc8vzlS99BymU8X8nKS6DcF7VXmZhCCCAAAIIIIDArAs0TQXnhsx6FdKv8J133smF45df/t/q6FgcOjv+8ssv67LLLtPUqdM6VZiPnX4t0Z94V9M8Nb1rnl544QVdfPHF4YJeWA+eMa9mBSKW9dprr3HmfBacWQUCCCCAAAIIIJCVQEOGcw/jpz/9qUZHR3X5wkW5cO7NLMk9LnFKudD8u7/7u/rlL38pbwpK8cd/k2fxd/7vJlE3wAZ/763v7LPP1re//W0tvKw9N/Wk+NjH3HKnJP/UlFLdCn8rTsPxyhR/SsvwPyanKf+4yty0F++Rld7jLnNnzvPr8OrlzUcvTov58Y9/TDjPakthuQgggAACCCCAwCwINGw4/9nPfqaXXnpJCxcuDJ05D4bz+X/1T1WhPOfd8/T6lj/UqVOnSuHcO0NfCvo6rSblvwz4nzCTz+T5v1meGhOsbD6Qe3PPy6foBJ9i411NYM55VbqahSCAAAIIIIAAAjURqHk49wLmV77yVZ343r/oNy68UKtXr9ZZZ52ViFEM596Z81+eeidfvhBg//mfn9XvXXGF3v7lZO4Z4Of3fF1vX/Ab+r3mJv33j12g3/nwgvDyc3O939LU1Dlqano79//+n9xZ6i39emP7H0qnp3RW89n61ree0eWXL8q/hSn4ViXX75JaVfhM6Uy9fxnFNyK53t5UWC7hPAmYvyOAAAIIIIAAAvUtUPNw/sorr6i3d7e2b9+mhx5+WFd2dubmiyf9vP766/rud7+r9vb23Jls/5SVZ599bjqcNzXpvTuPSB+6UE/+p9/WlReeG3rqyWnvTs6p06Wz2rmcX7jJs3hD6TxvislfDOiNv/TOnL+jd5/9bv3PZ57RokULp28ILdzAGVX33Jnu4snvqab8c+SVf5qM64x78cx48YkzUc+UL67vRz96TZcd/C5Pa0kaPPwdAQQQQAABBBCoU4GahnNvtsY3v/lNvfrK87rpM/9FR44c0c9//v/06U9/KpErGM79H3juuedz4fytX76lpqZ5atn5de1f/jvq/thvhJbrBd+3J9/WwWP/6lznJ5dcqAtavEcmzsuF819sW5abRvPu5nNK4TyxsoUCXth+4MEH9fUjX7d+RKtXf1qf+MQnSl8cgtNl/AsinJtZKYgAAggggAACCNSlwP8Hmi7M9TwmeTgAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -238,7 +261,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="71" name="グループ化 70"/>
+        <xdr:cNvPr id="71" name="グループ化 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -251,7 +280,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="34" name="グループ化 33"/>
+          <xdr:cNvPr id="34" name="グループ化 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -264,7 +299,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="35" name="角丸四角形 34"/>
+            <xdr:cNvPr id="35" name="角丸四角形 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -334,7 +375,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="角丸四角形 35"/>
+            <xdr:cNvPr id="36" name="角丸四角形 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -393,7 +440,13 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="37" name="グループ化 36"/>
+            <xdr:cNvPr id="37" name="グループ化 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -406,7 +459,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="66" name="角丸四角形 65"/>
+              <xdr:cNvPr id="66" name="角丸四角形 65">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -471,7 +530,13 @@
           </xdr:sp>
           <xdr:pic>
             <xdr:nvPicPr>
-              <xdr:cNvPr id="67" name="図 66"/>
+              <xdr:cNvPr id="67" name="図 66">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvPicPr>
                 <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               </xdr:cNvPicPr>
@@ -506,7 +571,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="角丸四角形 37"/>
+            <xdr:cNvPr id="38" name="角丸四角形 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -582,7 +653,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="39" name="角丸四角形 38"/>
+            <xdr:cNvPr id="39" name="角丸四角形 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -688,7 +765,13 @@
         </xdr:sp>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="40" name="グループ化 39"/>
+            <xdr:cNvPr id="40" name="グループ化 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -701,7 +784,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="64" name="角丸四角形 63"/>
+              <xdr:cNvPr id="64" name="角丸四角形 63">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -766,7 +855,13 @@
           </xdr:sp>
           <xdr:pic>
             <xdr:nvPicPr>
-              <xdr:cNvPr id="65" name="図 64"/>
+              <xdr:cNvPr id="65" name="図 64">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvPicPr>
                 <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               </xdr:cNvPicPr>
@@ -801,7 +896,13 @@
         </xdr:grpSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
+            <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="64" idx="2"/>
               <a:endCxn id="43" idx="0"/>
@@ -840,7 +941,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="42" name="角丸四角形 41"/>
+            <xdr:cNvPr id="42" name="角丸四角形 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -905,7 +1012,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="角丸四角形 42"/>
+            <xdr:cNvPr id="43" name="角丸四角形 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1003,7 +1116,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="角丸四角形 43"/>
+            <xdr:cNvPr id="44" name="角丸四角形 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1094,7 +1213,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="45" name="角丸四角形 44"/>
+            <xdr:cNvPr id="45" name="角丸四角形 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1153,7 +1278,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="46" name="角丸四角形 45"/>
+            <xdr:cNvPr id="46" name="角丸四角形 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1212,7 +1343,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="47" name="角丸四角形 46"/>
+            <xdr:cNvPr id="47" name="角丸四角形 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1271,7 +1408,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
+            <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="45" idx="3"/>
               <a:endCxn id="46" idx="1"/>
@@ -1310,7 +1453,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
+            <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="46" idx="3"/>
               <a:endCxn id="47" idx="1"/>
@@ -1349,7 +1498,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="50" name="角丸四角形 49"/>
+            <xdr:cNvPr id="50" name="角丸四角形 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1408,7 +1563,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="51" name="角丸四角形 50"/>
+            <xdr:cNvPr id="51" name="角丸四角形 50">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1484,7 +1645,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="52" name="角丸四角形 51"/>
+            <xdr:cNvPr id="52" name="角丸四角形 51">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1582,7 +1749,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="53" name="角丸四角形 52"/>
+            <xdr:cNvPr id="53" name="角丸四角形 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1640,7 +1813,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="54" name="直線矢印コネクタ 53"/>
+            <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="47" idx="0"/>
               <a:endCxn id="53" idx="2"/>
@@ -1679,7 +1858,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="55" name="直線矢印コネクタ 54"/>
+            <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="43" idx="2"/>
               <a:endCxn id="45" idx="0"/>
@@ -1718,7 +1903,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="56" name="直線矢印コネクタ 55"/>
+            <xdr:cNvPr id="56" name="直線矢印コネクタ 55">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="66" idx="2"/>
               <a:endCxn id="53" idx="0"/>
@@ -1757,7 +1948,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="57" name="角丸四角形 56"/>
+            <xdr:cNvPr id="57" name="角丸四角形 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1822,7 +2019,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
+            <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="67" idx="1"/>
               <a:endCxn id="65" idx="3"/>
@@ -1861,7 +2064,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="59" name="角丸四角形 58"/>
+            <xdr:cNvPr id="59" name="角丸四角形 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1926,7 +2135,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="60" name="角丸四角形 59"/>
+            <xdr:cNvPr id="60" name="角丸四角形 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -1991,7 +2206,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="61" name="テキスト ボックス 60"/>
+            <xdr:cNvPr id="61" name="テキスト ボックス 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2153,7 +2374,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="62" name="テキスト ボックス 61"/>
+            <xdr:cNvPr id="62" name="テキスト ボックス 61">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2264,7 +2491,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="63" name="角丸四角形 62"/>
+            <xdr:cNvPr id="63" name="角丸四角形 62">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2363,7 +2596,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="テキスト ボックス 94"/>
+          <xdr:cNvPr id="95" name="テキスト ボックス 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2480,7 +2719,7 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>GitLab/Concourse</a:t>
+              <a:t>GitLab</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2503,7 +2742,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2516,7 +2761,13 @@
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="70" name="グループ化 69"/>
+          <xdr:cNvPr id="70" name="グループ化 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -2529,7 +2780,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="80" name="角丸四角形 79"/>
+            <xdr:cNvPr id="80" name="角丸四角形 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2596,7 +2853,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="76" name="角丸四角形 75"/>
+            <xdr:cNvPr id="76" name="角丸四角形 75">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2691,7 +2954,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="81" name="角丸四角形 80"/>
+            <xdr:cNvPr id="81" name="角丸四角形 80">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2750,7 +3019,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="82" name="角丸四角形 81"/>
+            <xdr:cNvPr id="82" name="角丸四角形 81">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2809,7 +3084,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="83" name="角丸四角形 82"/>
+            <xdr:cNvPr id="83" name="角丸四角形 82">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2923,7 +3204,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="84" name="角丸四角形 83"/>
+            <xdr:cNvPr id="84" name="角丸四角形 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3070,7 +3357,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="85" name="角丸四角形 84"/>
+            <xdr:cNvPr id="85" name="角丸四角形 84">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3162,7 +3455,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="86" name="角丸四角形 85"/>
+            <xdr:cNvPr id="86" name="角丸四角形 85">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3254,7 +3553,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="87" name="角丸四角形 86"/>
+            <xdr:cNvPr id="87" name="角丸四角形 86">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3341,7 +3646,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="88" name="角丸四角形 87"/>
+            <xdr:cNvPr id="88" name="角丸四角形 87">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3428,7 +3739,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="90" name="角丸四角形 89"/>
+            <xdr:cNvPr id="90" name="角丸四角形 89">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3520,7 +3837,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="93" name="角丸四角形 92"/>
+            <xdr:cNvPr id="93" name="角丸四角形 92">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3612,7 +3935,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="94" name="角丸四角形 93"/>
+            <xdr:cNvPr id="94" name="角丸四角形 93">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3704,7 +4033,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="89" name="テキスト ボックス 88"/>
+            <xdr:cNvPr id="89" name="テキスト ボックス 88">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3768,7 +4103,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="92" name="テキスト ボックス 91"/>
+            <xdr:cNvPr id="92" name="テキスト ボックス 91">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3878,7 +4219,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="68" name="テキスト ボックス 67"/>
+          <xdr:cNvPr id="68" name="テキスト ボックス 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3969,7 +4316,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="94" name="グループ化 93"/>
+        <xdr:cNvPr id="94" name="グループ化 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3982,7 +4335,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="角丸四角形 8"/>
+          <xdr:cNvPr id="9" name="角丸四角形 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4061,7 +4420,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="角丸四角形 12"/>
+          <xdr:cNvPr id="13" name="角丸四角形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4127,7 +4492,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="角丸四角形 13"/>
+          <xdr:cNvPr id="14" name="角丸四角形 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4193,7 +4564,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="角丸四角形 14"/>
+          <xdr:cNvPr id="15" name="角丸四角形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4259,7 +4636,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+          <xdr:cNvPr id="20" name="テキスト ボックス 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4433,7 +4816,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="角丸四角形 20"/>
+          <xdr:cNvPr id="21" name="角丸四角形 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4499,7 +4888,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="角丸四角形 44"/>
+          <xdr:cNvPr id="45" name="角丸四角形 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4614,7 +5009,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="テキスト ボックス 45"/>
+          <xdr:cNvPr id="46" name="テキスト ボックス 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4674,7 +5075,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="テキスト ボックス 46"/>
+          <xdr:cNvPr id="47" name="テキスト ボックス 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4727,7 +5134,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="角丸四角形 58"/>
+          <xdr:cNvPr id="59" name="角丸四角形 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4806,7 +5219,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="60" name="角丸四角形 59"/>
+          <xdr:cNvPr id="60" name="角丸四角形 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4872,7 +5291,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="角丸四角形 60"/>
+          <xdr:cNvPr id="61" name="角丸四角形 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4938,7 +5363,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="角丸四角形 61"/>
+          <xdr:cNvPr id="62" name="角丸四角形 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5004,7 +5435,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="角丸四角形 62"/>
+          <xdr:cNvPr id="63" name="角丸四角形 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5070,7 +5507,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="角丸四角形 63"/>
+          <xdr:cNvPr id="64" name="角丸四角形 63">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5185,7 +5628,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="テキスト ボックス 64"/>
+          <xdr:cNvPr id="65" name="テキスト ボックス 64">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5245,7 +5694,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="テキスト ボックス 65"/>
+          <xdr:cNvPr id="66" name="テキスト ボックス 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5298,7 +5753,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="テキスト ボックス 73"/>
+          <xdr:cNvPr id="74" name="テキスト ボックス 73">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5544,7 +6005,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="テキスト ボックス 74"/>
+          <xdr:cNvPr id="75" name="テキスト ボックス 74">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5858,7 +6325,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="77" name="直線矢印コネクタ 76"/>
+          <xdr:cNvPr id="77" name="直線矢印コネクタ 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:endCxn id="14" idx="1"/>
           </xdr:cNvCxnSpPr>
@@ -5895,7 +6368,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="82" name="テキスト ボックス 81"/>
+          <xdr:cNvPr id="82" name="テキスト ボックス 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5946,7 +6425,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="83" name="直線矢印コネクタ 82"/>
+          <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="60" idx="1"/>
             <a:endCxn id="14" idx="3"/>
@@ -5984,7 +6469,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="84" name="テキスト ボックス 83"/>
+          <xdr:cNvPr id="84" name="テキスト ボックス 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6035,7 +6526,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="87" name="直線矢印コネクタ 86"/>
+          <xdr:cNvPr id="87" name="直線矢印コネクタ 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000057000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="60" idx="3"/>
             <a:endCxn id="62" idx="3"/>
@@ -6075,7 +6572,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="テキスト ボックス 92"/>
+          <xdr:cNvPr id="93" name="テキスト ボックス 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00005D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6134,10 +6637,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>13845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
@@ -6147,2131 +6650,137 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="104" name="グループ化 103"/>
+        <xdr:cNvPr id="100" name="グループ化 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2181225" y="1047751"/>
-          <a:ext cx="8020051" cy="6938059"/>
-          <a:chOff x="895350" y="2828926"/>
-          <a:chExt cx="8020051" cy="6943837"/>
+          <a:off x="7513865" y="7378031"/>
+          <a:ext cx="2736397" cy="547908"/>
+          <a:chOff x="5543551" y="9182213"/>
+          <a:chExt cx="2724150" cy="552450"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="100" name="グループ化 99"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="6191251" y="9220313"/>
-            <a:ext cx="2724150" cy="552450"/>
-            <a:chOff x="5543551" y="9182213"/>
-            <a:chExt cx="2724150" cy="552450"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="97" name="テキスト ボックス 96"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5543551" y="9182213"/>
-              <a:ext cx="2724150" cy="552450"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="9525" cmpd="sng">
-              <a:noFill/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>　　　　</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>AWS</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>マネジメントコンソールで操作して作成</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>　　　　</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>CloudFormation</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>でテンプレートから作成</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="96" name="角丸四角形 95"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5605463" y="9267938"/>
-              <a:ext cx="314325" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 13263"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent3"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent3"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l">
-                <a:lnSpc>
-                  <a:spcPts val="1300"/>
-                </a:lnSpc>
-              </a:pPr>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="98" name="角丸四角形 97"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5605463" y="9477488"/>
-              <a:ext cx="314325" cy="152400"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 13263"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent3"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent3"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l">
-                <a:lnSpc>
-                  <a:spcPts val="1300"/>
-                </a:lnSpc>
-              </a:pPr>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="角丸四角形 56"/>
-          <xdr:cNvSpPr/>
+          <xdr:cNvPr id="97" name="テキスト ボックス 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="895350" y="2828926"/>
-            <a:ext cx="7872414" cy="4495800"/>
+            <a:off x="5543551" y="9182213"/>
+            <a:ext cx="2724150" cy="552450"/>
           </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 3070"/>
-            </a:avLst>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
           </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
           </a:ln>
         </xdr:spPr>
         <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
           </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
           </a:fillRef>
           <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
+            <a:scrgbClr r="0" g="0" b="0"/>
           </a:effectRef>
           <a:fontRef idx="minor">
             <a:schemeClr val="dk1"/>
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>VPC</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>　　　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>AWS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>マネジメントコンソールで操作して作成</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>　　　　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>CloudFormation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>でテンプレートから作成</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="58" name="角丸四角形 57"/>
+          <xdr:cNvPr id="96" name="角丸四角形 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2919412" y="3771900"/>
-            <a:ext cx="5743575" cy="3400425"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 5493"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>プライベートサブネット</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="角丸四角形 58"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="947738" y="3771900"/>
-            <a:ext cx="1857376" cy="1076326"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 8676"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>パブリックサブネット</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="60" name="角丸四角形 59"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="966788" y="4981575"/>
-            <a:ext cx="1857376" cy="952500"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 11508"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>パブリックサブネット２</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>(ALB</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>を使う際にパブリックサブネットが</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>つ以上必要なため</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="角丸四角形 60"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5091113" y="4210050"/>
-            <a:ext cx="1581150" cy="2085975"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 7828"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>EC2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>（</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ci</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>）</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="角丸四角形 61"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3186114" y="4200526"/>
-            <a:ext cx="1581150" cy="2133600"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 7828"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>EC2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>（</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>cq</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>）</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="角丸四角形 62"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5329238" y="4962525"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>GitBucket</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>or</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>GitLab</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="角丸四角形 63"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5329238" y="5381625"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Nexus</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="角丸四角形 64"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5329238" y="5800725"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Jenkins</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>or</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Concourse</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="角丸四角形 65"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3407569" y="5857875"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>SonarQube</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="67" name="角丸四角形 66"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3407569" y="5422900"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Rocket.Chat</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="68" name="角丸四角形 67"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3407569" y="4987925"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Redmine</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="69" name="角丸四角形 68"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6929438" y="4457700"/>
-            <a:ext cx="1581150" cy="942975"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 7828"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>EC2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>（</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>demo</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>）</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="70" name="角丸四角形 69"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7138988" y="4819650"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>デモ環境</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="72" name="角丸四角形 71"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3395663" y="3267075"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ALB</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="74" name="角丸四角形 73"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3407569" y="4552950"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>httpd</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="75" name="角丸四角形 74"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5329238" y="4543425"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>httpd</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="角丸四角形 75"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5300663" y="3267075"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ALB</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="角丸四角形 78"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7138988" y="3276600"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ALB</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="角丸四角形 79"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3395663" y="6743700"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>EBS</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="81" name="角丸四角形 80"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5300663" y="6724650"/>
-            <a:ext cx="1162050" cy="314324"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>EBS</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="82" name="直線矢印コネクタ 81"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="62" idx="0"/>
-            <a:endCxn id="72" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1" flipV="1">
-            <a:off x="3976688" y="3581399"/>
-            <a:ext cx="1" cy="619127"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:tailEnd type="none"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="83" name="直線矢印コネクタ 82"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="80" idx="0"/>
-            <a:endCxn id="62" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="3976688" y="6334126"/>
-            <a:ext cx="1" cy="409574"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:tailEnd type="none"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="84" name="直線矢印コネクタ 83"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="61" idx="0"/>
-            <a:endCxn id="76" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="5881688" y="3581399"/>
-            <a:ext cx="0" cy="628651"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:tailEnd type="none"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="85" name="直線矢印コネクタ 84"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="81" idx="0"/>
-            <a:endCxn id="61" idx="2"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="5881688" y="6296025"/>
-            <a:ext cx="0" cy="428625"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:tailEnd type="none"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="86" name="直線矢印コネクタ 85"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="79" idx="2"/>
-            <a:endCxn id="69" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7720013" y="3590924"/>
-            <a:ext cx="0" cy="866776"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:tailEnd type="none"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="角丸四角形 86"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7858125" y="7486650"/>
-            <a:ext cx="1000125" cy="514350"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 13884"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>CloudWatch</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>アラーム</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="角丸四角形 87"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6991349" y="8181973"/>
-            <a:ext cx="1666875" cy="685801"/>
+            <a:off x="5605463" y="9267938"/>
+            <a:ext cx="314325" cy="152400"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
@@ -8307,72 +6816,6 @@
                 <a:spcPts val="1300"/>
               </a:lnSpc>
             </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>SNS</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>トピック</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>　サブスクリプション</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>(email)</a:t>
-            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -8386,80 +6829,28 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="89" name="角丸四角形 88"/>
+          <xdr:cNvPr id="98" name="角丸四角形 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="1290638" y="4219575"/>
-            <a:ext cx="1162050" cy="314324"/>
+            <a:off x="5605463" y="9477488"/>
+            <a:ext cx="314325" cy="152400"/>
           </a:xfrm>
           <a:prstGeom prst="roundRect">
             <a:avLst>
-              <a:gd name="adj" fmla="val 21460"/>
+              <a:gd name="adj" fmla="val 13263"/>
             </a:avLst>
           </a:prstGeom>
           <a:ln w="3175">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>踏み台</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="角丸四角形 91"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4714877" y="7486650"/>
-            <a:ext cx="2028824" cy="1628775"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 4878"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
@@ -8486,589 +6877,9 @@
                 <a:spcPts val="1300"/>
               </a:lnSpc>
             </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ロール</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ポリシー</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  cloudwatch:PutMetricData</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:CreateSnapshot</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:CreateTags</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:DeleteSnapshot</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:DescribeTags</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:DescribeVolumes</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  sns:Publish</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="93" name="角丸四角形 92"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="904875" y="7467600"/>
-            <a:ext cx="1800225" cy="1447801"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 5795"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Route53</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ドメイン</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>　*</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>.xxxxx.xxx</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>レコードセット</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  nop-cq.xxxxx.xxx</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  nop-ci.xxxxx.xxx</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>nop-demo.xxxxx.xxx</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="角丸四角形 93"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2816225" y="7486650"/>
-            <a:ext cx="1771651" cy="723900"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 8427"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>Certificate Manager</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>SSL</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>証明書</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  *</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>.xxxxx.xxx</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="角丸四角形 94"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6838952" y="7496176"/>
-            <a:ext cx="923924" cy="438149"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 8427"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>キーペア</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
@@ -9078,6 +6889,3014 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>109539</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>110560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="角丸四角形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="1047751"/>
+          <a:ext cx="7872414" cy="4492059"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3070"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>VPC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="角丸四角形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4205287" y="1989940"/>
+          <a:ext cx="5743575" cy="3397595"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5493"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>プライベートサブネット</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223839</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>169770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="角丸四角形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2233613" y="1989940"/>
+          <a:ext cx="1857376" cy="1075430"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8676"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パブリックサブネット</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>122034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242889</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>168866</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="角丸四角形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2252663" y="3198609"/>
+          <a:ext cx="1857376" cy="951707"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 11508"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パブリックサブネット２</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(ALB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>を使う際にパブリックサブネットが</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>つ以上必要なため</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>223838</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>168565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="角丸四角形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6376988" y="2427726"/>
+          <a:ext cx="1581150" cy="2084239"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7828"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>EC2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ci</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>この図の下に記載</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>52389</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>65535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>252414</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>157844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="角丸四角形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4493760" y="2400521"/>
+          <a:ext cx="1587954" cy="2427294"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7828"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>EC2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>cq</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>92730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>54769</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>44842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="角丸四角形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693444" y="4074180"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SonarQube</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>20067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>54769</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>153154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="角丸四角形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693444" y="3639567"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Rocket.Chat</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>54769</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80490</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="角丸四角形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693444" y="3204953"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Redmine</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>178835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="角丸四角形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8215313" y="2675170"/>
+          <a:ext cx="1581150" cy="942190"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7828"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>EC2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>demo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>141219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>195263</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>93331</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="角丸四角形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8424863" y="3036819"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>デモ環境</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>170822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="角丸四角形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4681538" y="1485535"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ALB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>273844</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>55715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>54769</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7827</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="角丸四角形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4693444" y="2770340"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>httpd</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>170822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="角丸四角形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6586538" y="1485535"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ALB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>138113</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>195263</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180339</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="角丸四角形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8424863" y="1495052"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ALB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="角丸四角形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4681538" y="4959267"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>EBS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="角丸四角形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6586538" y="4940233"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>EBS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>170822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>65535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="0"/>
+          <a:endCxn id="72" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5287736" y="1787351"/>
+          <a:ext cx="1" cy="613170"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>157844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72942</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="0"/>
+          <a:endCxn id="62" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5287736" y="4827815"/>
+          <a:ext cx="1" cy="94713"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>170823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75051</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="0"/>
+          <a:endCxn id="76" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7167563" y="1799598"/>
+          <a:ext cx="0" cy="628128"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>168565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53908</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="0"/>
+          <a:endCxn id="61" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7167563" y="4511965"/>
+          <a:ext cx="0" cy="428268"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141520</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線矢印コネクタ 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="2"/>
+          <a:endCxn id="69" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9005888" y="1809115"/>
+          <a:ext cx="0" cy="866055"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>62371</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="角丸四角形 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="5701599"/>
+          <a:ext cx="1000125" cy="513922"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13884"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>CloudWatch</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>アラーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>62219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>23549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="角丸四角形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8277224" y="6396344"/>
+          <a:ext cx="1666875" cy="685230"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13263"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SNS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>トピック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　サブスクリプション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(email)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>84568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>147638</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>36680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="角丸四角形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2576513" y="2437243"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>踏み台</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200027</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>90019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="角丸四角形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000752" y="5701599"/>
+          <a:ext cx="2028824" cy="1627420"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4878"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ロール</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ポリシー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  cloudwatch:PutMetricData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:CreateSnapshot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:CreateTags</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:DeleteSnapshot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:DescribeTags</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:DescribeVolumes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  sns:Publish</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>72340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>71136</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="角丸四角形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="5682565"/>
+          <a:ext cx="1800225" cy="1446596"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5795"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Route53</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ドメイン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>.xxxxx.xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レコードセット</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  nop-cq.xxxxx.xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  nop-ci.xxxxx.xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>nop-demo.xxxxx.xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>73026</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>90772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="角丸四角形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4102100" y="5701599"/>
+          <a:ext cx="1771651" cy="723298"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8427"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Certificate Manager</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SSL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>証明書</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>.xxxxx.xxx</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>176726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="角丸四角形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8124827" y="5711117"/>
+          <a:ext cx="923924" cy="437784"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8427"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キーペア</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -9095,20 +9914,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11401425" y="895350"/>
-          <a:ext cx="7953375" cy="6229350"/>
+          <a:off x="11457214" y="889907"/>
+          <a:ext cx="7992836" cy="6181725"/>
           <a:chOff x="9191625" y="381000"/>
           <a:chExt cx="7953375" cy="6238875"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="グループ化 2"/>
+          <xdr:cNvPr id="3" name="グループ化 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -9121,7 +9952,13 @@
         </xdr:grpSpPr>
         <xdr:grpSp>
           <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="119" name="グループ化 118"/>
+            <xdr:cNvPr id="119" name="グループ化 118">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGrpSpPr/>
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
@@ -9134,7 +9971,13 @@
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="106" name="角丸四角形 105"/>
+              <xdr:cNvPr id="106" name="角丸四角形 105">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9192,7 +10035,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="107" name="角丸四角形 106"/>
+              <xdr:cNvPr id="107" name="角丸四角形 106">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9284,7 +10133,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="108" name="角丸四角形 107"/>
+              <xdr:cNvPr id="108" name="角丸四角形 107">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9387,7 +10242,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="109" name="角丸四角形 108"/>
+              <xdr:cNvPr id="109" name="角丸四角形 108">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9479,7 +10340,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="110" name="角丸四角形 109"/>
+              <xdr:cNvPr id="110" name="角丸四角形 109">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9611,7 +10478,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="111" name="角丸四角形 110"/>
+              <xdr:cNvPr id="111" name="角丸四角形 110">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9692,7 +10565,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="112" name="角丸四角形 111"/>
+              <xdr:cNvPr id="112" name="角丸四角形 111">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -9872,7 +10751,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="113" name="角丸四角形 112"/>
+              <xdr:cNvPr id="113" name="角丸四角形 112">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -10030,7 +10915,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="114" name="角丸四角形 113"/>
+              <xdr:cNvPr id="114" name="角丸四角形 113">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -10202,7 +11093,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="115" name="角丸四角形 114"/>
+              <xdr:cNvPr id="115" name="角丸四角形 114">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -10331,7 +11228,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="116" name="角丸四角形 115"/>
+              <xdr:cNvPr id="116" name="角丸四角形 115">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -10488,7 +11391,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="117" name="角丸四角形 116"/>
+              <xdr:cNvPr id="117" name="角丸四角形 116">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -10576,7 +11485,13 @@
           </xdr:sp>
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
-              <xdr:cNvPr id="118" name="角丸四角形 117"/>
+              <xdr:cNvPr id="118" name="角丸四角形 117">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
               <xdr:cNvSpPr/>
             </xdr:nvSpPr>
             <xdr:spPr>
@@ -10665,7 +11580,13 @@
         </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="101" name="角丸四角形 100"/>
+            <xdr:cNvPr id="101" name="角丸四角形 100">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -10787,7 +11708,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="角丸四角形 89"/>
+          <xdr:cNvPr id="90" name="角丸四角形 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11091,20 +12018,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="55" name="グループ化 54"/>
+        <xdr:cNvPr id="55" name="グループ化 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21564600" y="1571625"/>
-          <a:ext cx="8048626" cy="4438650"/>
+          <a:off x="21670736" y="1560739"/>
+          <a:ext cx="8088086" cy="4404632"/>
           <a:chOff x="9153525" y="9839325"/>
           <a:chExt cx="8048626" cy="4438650"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="角丸四角形 101"/>
+          <xdr:cNvPr id="102" name="角丸四角形 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11182,7 +12121,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="グループ化 3"/>
+          <xdr:cNvPr id="4" name="グループ化 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -11195,7 +12140,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="91" name="角丸四角形 90"/>
+            <xdr:cNvPr id="91" name="角丸四角形 90">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -11262,7 +12213,13 @@
         </xdr:sp>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="99" name="図 98"/>
+            <xdr:cNvPr id="99" name="図 98">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
             </xdr:cNvPicPr>
@@ -11297,7 +12254,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="103" name="角丸四角形 102"/>
+          <xdr:cNvPr id="103" name="角丸四角形 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11389,7 +12352,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="角丸四角形 104"/>
+          <xdr:cNvPr id="105" name="角丸四角形 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11455,7 +12424,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="120" name="角丸四角形 119"/>
+          <xdr:cNvPr id="120" name="角丸四角形 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11531,7 +12506,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="121" name="直線矢印コネクタ 120"/>
+          <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="105" idx="1"/>
             <a:endCxn id="120" idx="3"/>
@@ -11570,7 +12551,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="角丸四角形 121"/>
+          <xdr:cNvPr id="122" name="角丸四角形 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11627,7 +12614,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="角丸四角形 122"/>
+          <xdr:cNvPr id="123" name="角丸四角形 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11733,7 +12726,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="124" name="直線矢印コネクタ 123"/>
+          <xdr:cNvPr id="124" name="直線矢印コネクタ 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="120" idx="2"/>
             <a:endCxn id="123" idx="0"/>
@@ -11772,7 +12771,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="125" name="角丸四角形 124"/>
+          <xdr:cNvPr id="125" name="角丸四角形 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11829,7 +12834,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="126" name="角丸四角形 125"/>
+          <xdr:cNvPr id="126" name="角丸四角形 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11896,7 +12907,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="127" name="角丸四角形 126"/>
+          <xdr:cNvPr id="127" name="角丸四角形 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11999,7 +13016,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="128" name="直線矢印コネクタ 127"/>
+          <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="123" idx="3"/>
             <a:endCxn id="132" idx="1"/>
@@ -12038,7 +13061,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="129" name="角丸四角形 128"/>
+          <xdr:cNvPr id="129" name="角丸四角形 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12133,7 +13162,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="130" name="角丸四角形 129"/>
+          <xdr:cNvPr id="130" name="角丸四角形 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12228,7 +13263,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="131" name="角丸四角形 130"/>
+          <xdr:cNvPr id="131" name="角丸四角形 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12285,7 +13326,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="132" name="角丸四角形 131"/>
+          <xdr:cNvPr id="132" name="角丸四角形 131">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000084000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12369,7 +13416,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="135" name="直線矢印コネクタ 134"/>
+          <xdr:cNvPr id="135" name="直線矢印コネクタ 134">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000087000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="132" idx="3"/>
             <a:endCxn id="127" idx="1"/>
@@ -12408,7 +13461,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="138" name="テキスト ボックス 137"/>
+          <xdr:cNvPr id="138" name="テキスト ボックス 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12644,20 +13703,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="グループ化 21"/>
+        <xdr:cNvPr id="22" name="グループ化 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21050250" y="8334375"/>
-          <a:ext cx="9544050" cy="3457576"/>
+          <a:off x="21153664" y="8271782"/>
+          <a:ext cx="9590315" cy="3431723"/>
           <a:chOff x="1866900" y="12639675"/>
           <a:chExt cx="9544050" cy="3457576"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="162" name="角丸四角形 161"/>
+          <xdr:cNvPr id="162" name="角丸四角形 161">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A2000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12735,7 +13806,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="157" name="角丸四角形 156"/>
+          <xdr:cNvPr id="157" name="角丸四角形 156">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12802,7 +13879,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="158" name="図 157"/>
+          <xdr:cNvPr id="158" name="図 157">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -12836,7 +13919,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="159" name="角丸四角形 158"/>
+          <xdr:cNvPr id="159" name="角丸四角形 158">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -12998,7 +14087,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="160" name="角丸四角形 159"/>
+          <xdr:cNvPr id="160" name="角丸四角形 159">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A0000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -13065,7 +14160,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="161" name="角丸四角形 160"/>
+          <xdr:cNvPr id="161" name="角丸四角形 160">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A1000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -13131,7 +14232,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="163" name="角丸四角形 162"/>
+          <xdr:cNvPr id="163" name="角丸四角形 162">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A3000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -13197,7 +14304,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="164" name="角丸四角形 163"/>
+          <xdr:cNvPr id="164" name="角丸四角形 163">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -13263,7 +14376,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="165" name="直線矢印コネクタ 164"/>
+          <xdr:cNvPr id="165" name="直線矢印コネクタ 164">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="159" idx="3"/>
             <a:endCxn id="163" idx="1"/>
@@ -13302,7 +14421,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="166" name="角丸四角形 165"/>
+          <xdr:cNvPr id="166" name="角丸四角形 165">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -13367,7 +14492,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="167" name="直線矢印コネクタ 166"/>
+          <xdr:cNvPr id="167" name="直線矢印コネクタ 166">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="164" idx="0"/>
             <a:endCxn id="163" idx="2"/>
@@ -13406,7 +14537,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="169" name="直線矢印コネクタ 168"/>
+          <xdr:cNvPr id="169" name="直線矢印コネクタ 168">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="158" idx="3"/>
             <a:endCxn id="164" idx="1"/>
@@ -13445,7 +14582,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="170" name="角丸四角形 169"/>
+          <xdr:cNvPr id="170" name="角丸四角形 169">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -13510,7 +14653,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="171" name="角丸四角形 170"/>
+          <xdr:cNvPr id="171" name="角丸四角形 170">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -13575,7 +14724,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="172" name="グループ化 171"/>
+          <xdr:cNvPr id="172" name="グループ化 171">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AC000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -13588,7 +14743,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="174" name="角丸四角形 173"/>
+            <xdr:cNvPr id="174" name="角丸四角形 173">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AE000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13656,7 +14817,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="175" name="角丸四角形 174"/>
+            <xdr:cNvPr id="175" name="角丸四角形 174">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AF000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13715,7 +14882,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="178" name="角丸四角形 177"/>
+            <xdr:cNvPr id="178" name="角丸四角形 177">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B2000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13807,7 +14980,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="179" name="角丸四角形 178"/>
+            <xdr:cNvPr id="179" name="角丸四角形 178">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B3000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -13899,7 +15078,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="180" name="角丸四角形 179"/>
+            <xdr:cNvPr id="180" name="角丸四角形 179">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B4000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14005,7 +15190,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="181" name="角丸四角形 180"/>
+            <xdr:cNvPr id="181" name="角丸四角形 180">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B5000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14071,7 +15262,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="182" name="角丸四角形 181"/>
+            <xdr:cNvPr id="182" name="角丸四角形 181">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B6000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14177,7 +15374,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="183" name="角丸四角形 182"/>
+            <xdr:cNvPr id="183" name="角丸四角形 182">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B7000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14243,7 +15446,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="184" name="角丸四角形 183"/>
+            <xdr:cNvPr id="184" name="角丸四角形 183">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B8000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14309,7 +15518,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="185" name="角丸四角形 184"/>
+            <xdr:cNvPr id="185" name="角丸四角形 184">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B9000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14375,7 +15590,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="186" name="角丸四角形 185"/>
+            <xdr:cNvPr id="186" name="角丸四角形 185">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14467,7 +15688,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="187" name="角丸四角形 186"/>
+            <xdr:cNvPr id="187" name="角丸四角形 186">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BB000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14525,7 +15752,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="189" name="角丸四角形 188"/>
+            <xdr:cNvPr id="189" name="角丸四角形 188">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BD000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14591,7 +15824,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="191" name="角丸四角形 190"/>
+            <xdr:cNvPr id="191" name="角丸四角形 190">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BF000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14657,7 +15896,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="192" name="角丸四角形 191"/>
+            <xdr:cNvPr id="192" name="角丸四角形 191">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C0000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14723,7 +15968,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="193" name="角丸四角形 192"/>
+            <xdr:cNvPr id="193" name="角丸四角形 192">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C1000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14789,7 +16040,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="196" name="角丸四角形 195"/>
+            <xdr:cNvPr id="196" name="角丸四角形 195">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C4000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14855,7 +16112,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="197" name="角丸四角形 196"/>
+            <xdr:cNvPr id="197" name="角丸四角形 196">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C5000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14921,7 +16184,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="198" name="角丸四角形 197"/>
+            <xdr:cNvPr id="198" name="角丸四角形 197">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C6000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -14987,7 +16256,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="199" name="直線矢印コネクタ 198"/>
+            <xdr:cNvPr id="199" name="直線矢印コネクタ 198">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C7000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="179" idx="0"/>
               <a:endCxn id="189" idx="2"/>
@@ -15026,7 +16301,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="200" name="直線矢印コネクタ 199"/>
+            <xdr:cNvPr id="200" name="直線矢印コネクタ 199">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C8000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="197" idx="0"/>
               <a:endCxn id="179" idx="2"/>
@@ -15065,7 +16346,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="201" name="直線矢印コネクタ 200"/>
+            <xdr:cNvPr id="201" name="直線矢印コネクタ 200">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C9000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="178" idx="0"/>
               <a:endCxn id="193" idx="2"/>
@@ -15104,7 +16391,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="202" name="直線矢印コネクタ 201"/>
+            <xdr:cNvPr id="202" name="直線矢印コネクタ 201">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CA000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="198" idx="0"/>
               <a:endCxn id="178" idx="2"/>
@@ -15143,7 +16436,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="203" name="直線矢印コネクタ 202"/>
+            <xdr:cNvPr id="203" name="直線矢印コネクタ 202">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CB000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="196" idx="2"/>
               <a:endCxn id="186" idx="0"/>
@@ -15183,7 +16482,13 @@
       </xdr:grpSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="214" name="直線矢印コネクタ 213"/>
+          <xdr:cNvPr id="214" name="直線矢印コネクタ 213">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D6000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="164" idx="3"/>
             <a:endCxn id="174" idx="1"/>
@@ -15222,7 +16527,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="215" name="角丸四角形 214"/>
+          <xdr:cNvPr id="215" name="角丸四角形 214">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D7000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -15288,11 +16599,1251 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4325711" y="8092168"/>
+          <a:ext cx="3886200" cy="2439760"/>
+          <a:chOff x="3971925" y="7858125"/>
+          <a:chExt cx="3867150" cy="2457449"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="219" name="テキスト ボックス 218">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DB000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3971925" y="7858125"/>
+            <a:ext cx="3867150" cy="2457449"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>ci</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>サーバの選択肢</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="133" name="グループ化 132">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000085000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4195763" y="8123676"/>
+            <a:ext cx="1581150" cy="2084240"/>
+            <a:chOff x="5091113" y="4210051"/>
+            <a:chExt cx="1581150" cy="2085975"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="141" name="角丸四角形 140">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5091113" y="4210051"/>
+              <a:ext cx="1581150" cy="2085975"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 7828"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>GitBucket + Jenkins</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="143" name="角丸四角形 142">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5329238" y="4962525"/>
+              <a:ext cx="1162050" cy="314324"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 21460"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>GitBucket</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="144" name="角丸四角形 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000090000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5329238" y="5381625"/>
+              <a:ext cx="1162050" cy="314324"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 21460"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>Nexus</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="145" name="角丸四角形 144">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5329238" y="5800725"/>
+              <a:ext cx="1162050" cy="314324"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 21460"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>Jenkins</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>or</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>Concourse</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="153" name="角丸四角形 152">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000099000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5329238" y="4543425"/>
+              <a:ext cx="1162050" cy="314324"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 21460"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>httpd</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="212" name="角丸四角形 211">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D4000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6129338" y="8114150"/>
+            <a:ext cx="1581150" cy="2084240"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 7828"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>GitLab</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="213" name="角丸四角形 212">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D5000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6348413" y="8875801"/>
+            <a:ext cx="1162050" cy="314063"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 21460"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>GitLab</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="216" name="角丸四角形 215">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D8000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6348413" y="9294553"/>
+            <a:ext cx="1162050" cy="314063"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 21460"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Nexus</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="218" name="角丸四角形 217">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DA000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6348413" y="8457050"/>
+            <a:ext cx="1162050" cy="314063"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 21460"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>httpd</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>225238</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="角丸四角形 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4147297" y="6485405"/>
+          <a:ext cx="1780615" cy="439829"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5795"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DLM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>94987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="角丸四角形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17BA356C-B3E2-4003-A84B-E875043B8672}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695825" y="4486275"/>
+          <a:ext cx="1162050" cy="314062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 21460"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Subversion</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>75482</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>75719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65D4447-8CC6-4622-BC27-342189CB804A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="171450"/>
+          <a:ext cx="5742857" cy="3847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1B5358-39B6-472B-B981-C6F0DF75DF09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="2895600"/>
+          <a:ext cx="3752850" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>103548</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>18619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9ECE833-F66E-4913-B65C-C525EED2C401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="4286250"/>
+          <a:ext cx="9819048" cy="3447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370094C2-3125-4BC1-9EE2-74A75C6803CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="7239000"/>
+          <a:ext cx="3429000" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15334,7 +17885,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15367,9 +17918,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15402,6 +17970,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -15577,12 +18162,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="P36:AR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AZ23" sqref="AZ23"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15607,12 +18190,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15627,12 +18208,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="P36:AR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="BY1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CJ37" sqref="CJ37"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -15654,4 +18233,19 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3575AB70-5DB1-4C76-9158-F02BB6A211FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/images/work.xlsx
+++ b/doc/images/work.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F974BF1-6F02-4301-B6E8-119261FDE44E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820EA3F1-77CB-47E5-A07A-8A3B264F1F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -6637,262 +6637,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>13845</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>22910</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="100" name="グループ化 99">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7513865" y="7378031"/>
-          <a:ext cx="2736397" cy="547908"/>
-          <a:chOff x="5543551" y="9182213"/>
-          <a:chExt cx="2724150" cy="552450"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="97" name="テキスト ボックス 96">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5543551" y="9182213"/>
-            <a:ext cx="2724150" cy="552450"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>　　　　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>AWS</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>マネジメントコンソールで操作して作成</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>　　　　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>CloudFormation</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>でテンプレートから作成</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="96" name="角丸四角形 95">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5605463" y="9267938"/>
-            <a:ext cx="314325" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 13263"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="98" name="角丸四角形 97">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5605463" y="9477488"/>
-            <a:ext cx="314325" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 13263"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -6917,8 +6661,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2181225" y="1047751"/>
-          <a:ext cx="7872414" cy="4492059"/>
+          <a:off x="2190750" y="1040947"/>
+          <a:ext cx="7911875" cy="4458042"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7346,8 +7090,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6376988" y="2427726"/>
-          <a:ext cx="1581150" cy="2084239"/>
+          <a:off x="6408284" y="2410037"/>
+          <a:ext cx="1587954" cy="2069271"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7852,192 +7596,197 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>204788</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>141520</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>128588</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>178835</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>112366</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="角丸四角形 68">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="グループ化 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE03AEB-2400-F4D5-3718-78E3023A5D4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8215313" y="2675170"/>
-          <a:ext cx="1581150" cy="942190"/>
+          <a:off x="8254774" y="2410037"/>
+          <a:ext cx="1589314" cy="935386"/>
+          <a:chOff x="8254774" y="2656120"/>
+          <a:chExt cx="1589314" cy="935386"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7828"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>EC2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>demo</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>138113</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>141219</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>195263</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>93331</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="角丸四角形 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8424863" y="3036819"/>
-          <a:ext cx="1162050" cy="314062"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 21460"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>デモ環境</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="角丸四角形 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8254774" y="2656120"/>
+            <a:ext cx="1589314" cy="935386"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 7828"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>EC2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>demo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>）</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="角丸四角形 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8465684" y="3015048"/>
+            <a:ext cx="1167493" cy="311340"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 21460"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>デモ環境</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -8685,13 +8434,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
+      <xdr:colOff>262618</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>170823</xdr:rowOff>
+      <xdr:rowOff>170822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
+      <xdr:colOff>262618</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>75051</xdr:rowOff>
     </xdr:to>
@@ -8711,8 +8460,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7167563" y="1799598"/>
-          <a:ext cx="0" cy="628128"/>
+          <a:off x="7202261" y="1787351"/>
+          <a:ext cx="0" cy="622686"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8745,13 +8494,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
+      <xdr:colOff>262618</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>168565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
+      <xdr:colOff>262618</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>53908</xdr:rowOff>
     </xdr:to>
@@ -8771,8 +8520,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7167563" y="4511965"/>
-          <a:ext cx="0" cy="428268"/>
+          <a:off x="7202261" y="4479308"/>
+          <a:ext cx="0" cy="424186"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8806,14 +8555,14 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180340</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>141520</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8831,8 +8580,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9005888" y="1809115"/>
-          <a:ext cx="0" cy="866055"/>
+          <a:off x="9049431" y="1796868"/>
+          <a:ext cx="0" cy="613169"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8860,245 +8609,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>91374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>62371</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="角丸四角形 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9144000" y="5701599"/>
-          <a:ext cx="1000125" cy="513922"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 13884"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>CloudWatch</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アラーム</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>62219</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>23549</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="角丸四角形 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8277224" y="6396344"/>
-          <a:ext cx="1666875" cy="685230"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 13263"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>SNS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>トピック</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　サブスクリプション</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(email)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -9178,2829 +8688,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>200027</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>91374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>90019</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="角丸四角形 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6000752" y="5701599"/>
-          <a:ext cx="2028824" cy="1627420"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 4878"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ロール</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ポリシー</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  cloudwatch:PutMetricData</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  ec2:CreateSnapshot</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  ec2:CreateTags</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  ec2:DeleteSnapshot</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  ec2:DescribeTags</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  ec2:DescribeVolumes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  sns:Publish</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>72340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>71136</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="角丸四角形 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2190750" y="5682565"/>
-          <a:ext cx="1800225" cy="1446596"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 5795"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Route53</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ドメイン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>.xxxxx.xxx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>レコードセット</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  nop-cq.xxxxx.xxx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  nop-ci.xxxxx.xxx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>nop-demo.xxxxx.xxx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>91374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>73026</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>90772</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="角丸四角形 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4102100" y="5701599"/>
-          <a:ext cx="1771651" cy="723298"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 8427"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Certificate Manager</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>SSL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>証明書</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  *</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>.xxxxx.xxx</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>114302</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>100892</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>176726</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="角丸四角形 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8124827" y="5711117"/>
-          <a:ext cx="923924" cy="437784"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 8427"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>キーペア</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11457214" y="889907"/>
-          <a:ext cx="7992836" cy="6181725"/>
-          <a:chOff x="9191625" y="381000"/>
-          <a:chExt cx="7953375" cy="6238875"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="グループ化 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="9191625" y="381000"/>
-            <a:ext cx="7953375" cy="5772151"/>
-            <a:chOff x="9191625" y="381000"/>
-            <a:chExt cx="7953375" cy="5772151"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="119" name="グループ化 118">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="9191625" y="381000"/>
-              <a:ext cx="7953375" cy="5276851"/>
-              <a:chOff x="9391650" y="15020925"/>
-              <a:chExt cx="7953375" cy="5276851"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="106" name="角丸四角形 105">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="9391650" y="15201900"/>
-                <a:ext cx="7953375" cy="4010026"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 2355"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>VPC</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="107" name="角丸四角形 106">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="9515475" y="15706726"/>
-                <a:ext cx="4200525" cy="2447924"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 2530"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>サブネット</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>パブリックサブネット</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="108" name="角丸四角形 107">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="9667875" y="17125950"/>
-                <a:ext cx="2152650" cy="609600"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 6912"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>EC2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>（踏み台サーバ）</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>AMI ID: CentOS Linux 7</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="109" name="角丸四角形 108">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13868400" y="15697200"/>
-                <a:ext cx="3362325" cy="3419475"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 2596"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>サブネット</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>プライベートサブネット</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="110" name="角丸四角形 109">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="9658350" y="16221075"/>
-                <a:ext cx="3343275" cy="561975"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 8427"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>NAT </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>ゲートウェイ</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>プライベートネットワークからインターネットにアクセスするため</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>)</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="111" name="角丸四角形 110">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12411076" y="15020925"/>
-                <a:ext cx="1428749" cy="304800"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 8427"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>インターネットゲートウェイ</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="112" name="角丸四角形 111">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11430001" y="17335500"/>
-                <a:ext cx="1781174" cy="704850"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 8427"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>セキュリティグループ</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>IN:22(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>ソース</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>:</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>開発拠点の</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>IP)</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>OUT:</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>すべて</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="113" name="角丸四角形 112">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="9544050" y="19421476"/>
-                <a:ext cx="1781174" cy="876300"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 7111"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>Route53</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>ドメイン</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>  xxxxx.xxx</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>（</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>ALB</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>用）</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="114" name="角丸四角形 113">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11496674" y="19421475"/>
-                <a:ext cx="1771651" cy="819149"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 8427"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>Certificate Manager</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>SSL</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>証明書</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>  *</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>.xxxxx.xxx</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>（</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>ALB</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>用）</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="115" name="角丸四角形 114">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13449300" y="19421475"/>
-                <a:ext cx="1762125" cy="561975"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 8427"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>キーペア</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>（アプリを配置する</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>EC2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>用）</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="116" name="角丸四角形 115">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="9534525" y="18288000"/>
-                <a:ext cx="4191000" cy="828675"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 10655"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>サブネット</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>パブリックサブネット</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>2</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>(ALB</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>を使う際にパブリックサブネットが</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>つ以上必要なため</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>)</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="117" name="角丸四角形 116">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11991976" y="16049625"/>
-                <a:ext cx="838200" cy="304800"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 8427"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>Elastic</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>IP</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="118" name="角丸四角形 117">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11134725" y="16906875"/>
-                <a:ext cx="838200" cy="304800"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 8427"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>Elastic</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>IP</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="101" name="角丸四角形 100">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13306425" y="5467350"/>
-              <a:ext cx="1666875" cy="685801"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 13263"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent3"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent3"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l">
-                <a:lnSpc>
-                  <a:spcPts val="1300"/>
-                </a:lnSpc>
-              </a:pPr>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>SNS</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l">
-                <a:lnSpc>
-                  <a:spcPts val="1300"/>
-                </a:lnSpc>
-              </a:pPr>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>トピック</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l">
-                <a:lnSpc>
-                  <a:spcPts val="1300"/>
-                </a:lnSpc>
-              </a:pPr>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>　サブスクリプション</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>(email)</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="角丸四角形 89">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15116175" y="4762500"/>
-            <a:ext cx="2028824" cy="1857375"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 4878"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ロール</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ポリシー</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  cloudwatch:PutMetricData</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:CreateSnapshot</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:CreateTags</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:DeleteSnapshot</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:DescribeTags</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:DescribeVolumes</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  sns:Publish</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>（アプリを配置する</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>EC2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>用）</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -17420,115 +14107,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>225238</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>30817</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="角丸四角形 133">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000086000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4147297" y="6485405"/>
-          <a:ext cx="1780615" cy="439829"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 5795"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>DLM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -17612,6 +14190,3726 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>117021</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3FB94C7-34DF-4A7D-9248-9E15BE0437AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2193471" y="5659417"/>
+          <a:ext cx="1809750" cy="1435710"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5795"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Route53</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ドメイン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>.xxxxx.xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レコードセット</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  nop-cq.xxxxx.xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  nop-ci.xxxxx.xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>nop-demo.xxxxx.xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>206374</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>89316</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627F7763-9155-4475-9BFA-644C45607000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4092574" y="5659416"/>
+          <a:ext cx="1781176" cy="716400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8427"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Certificate Manager</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SSL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>証明書</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>.xxxxx.xxx</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>206374</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>44787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>25960</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE8E3E0-834B-4827-9C59-0F1B936BC62C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4092574" y="6510901"/>
+          <a:ext cx="1762686" cy="584226"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5795"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DLM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>141511</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1357</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="角丸四角形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23AE4DBD-7421-401D-BD52-123E36A1B36B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5970811" y="5659417"/>
+          <a:ext cx="2358117" cy="2151083"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4878"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ロール</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ポリシー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  cloudwatch:PutMetricData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  cloudwatch:DisableAlarmActions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  cloudwatch:EnableAlarmActions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:CreateSnapshot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:CreateTags</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:DeleteSnapshot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:DescribeTags</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:DescribeVolumes</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  sns:Publish</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ssm:GetParameter</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>249685</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>92530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>111342</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="角丸四角形 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8E038A-15AD-4A1A-8E72-3683A6829F6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9132428" y="5660573"/>
+          <a:ext cx="972000" cy="504000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13884"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>CloudWatch</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>アラーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>93886</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>13356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>121094</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>154300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="角丸四角形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9D817C-59F5-40C3-80DF-DF384751FDCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8421457" y="6299856"/>
+          <a:ext cx="1692723" cy="679787"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13263"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SNS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>トピック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　サブスクリプション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(email)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>93886</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>92530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>186714</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="角丸四角形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98107CE-0064-4A78-89B3-9909F7A5037F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8421457" y="5660573"/>
+          <a:ext cx="648000" cy="504000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8427"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キーペア</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>93886</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>109970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>120371</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>71913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="角丸四角形 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EEE69F-0BB9-43FD-819D-5DCDB595AAF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8421457" y="7114927"/>
+          <a:ext cx="1692000" cy="680400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13263"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>System</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> Manager</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パラメータストア</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>メトリクス取得用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>65316</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>21775</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="グループ化 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E134222-13C5-8CB8-BBC3-AB2738135F31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11446330" y="889907"/>
+          <a:ext cx="8006445" cy="6550479"/>
+          <a:chOff x="11446330" y="889907"/>
+          <a:chExt cx="8006445" cy="6550479"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="119" name="グループ化 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11457214" y="889907"/>
+            <a:ext cx="7992836" cy="4152610"/>
+            <a:chOff x="9391650" y="15020925"/>
+            <a:chExt cx="7953375" cy="4191001"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="106" name="角丸四角形 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9391650" y="15201900"/>
+              <a:ext cx="7953375" cy="4010026"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 2355"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>VPC</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="107" name="角丸四角形 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9515475" y="15706726"/>
+              <a:ext cx="4200525" cy="2447924"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 2530"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>サブネット</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>パブリックサブネット</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="108" name="角丸四角形 107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9667875" y="17125950"/>
+              <a:ext cx="2152650" cy="609600"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 6912"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>EC2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>（踏み台サーバ）</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>AMI ID: Amazon Linux 2</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="109" name="角丸四角形 108">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13868400" y="15697200"/>
+              <a:ext cx="3362325" cy="3419475"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 2596"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>サブネット</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>プライベートサブネット</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="110" name="角丸四角形 109">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9658350" y="16221075"/>
+              <a:ext cx="3343275" cy="561975"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 8427"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>NAT </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>ゲートウェイ</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>プライベートネットワークからインターネットにアクセスするため</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="111" name="角丸四角形 110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12411076" y="15020925"/>
+              <a:ext cx="1428749" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 8427"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>インターネットゲートウェイ</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="112" name="角丸四角形 111">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11430001" y="17335500"/>
+              <a:ext cx="1781174" cy="704850"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 8427"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>セキュリティグループ</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>IN:22(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>ソース</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>開発拠点の</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>IP)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>OUT:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>すべて</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="116" name="角丸四角形 115">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9534525" y="18288000"/>
+              <a:ext cx="4191000" cy="828675"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 10655"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>サブネット</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>パブリックサブネット</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>(ALB</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>を使う際にパブリックサブネットが</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>つ以上必要なため</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="117" name="角丸四角形 116">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11991976" y="16049625"/>
+              <a:ext cx="838200" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 8427"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>Elastic</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>IP</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="118" name="角丸四角形 117">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11134725" y="16906875"/>
+              <a:ext cx="838200" cy="304800"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 8427"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>Elastic</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>IP</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="角丸四角形 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66DB5C0E-F4AC-4039-903E-5F285ABF79BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11446330" y="5143500"/>
+            <a:ext cx="1692000" cy="792000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 7111"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Route53</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ドメイン</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>  xxxxx.xxx</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ALB</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>用）</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="角丸四角形 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B089F81-43B1-4E9C-BC76-243E92B3F439}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13293092" y="5143500"/>
+            <a:ext cx="1692000" cy="792000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 8427"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>Certificate Manager</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>SSL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>証明書</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>  *</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>.xxxxx.xxx</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ALB</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>用）</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="角丸四角形 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C20D840-0848-43AF-B18B-20FF7A3EB974}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15139854" y="5143499"/>
+            <a:ext cx="1692001" cy="792000"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 8427"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>キーペア</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>（アプリを配置する</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>EC2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>用）</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="角丸四角形 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{290CE9D3-B4FA-48A8-AF96-96A05FFA4850}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15139854" y="6011980"/>
+            <a:ext cx="1692001" cy="679519"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 13263"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>SNS</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>トピック</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>　サブスクリプション</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>(email)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="角丸四角形 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285536E6-05DC-4440-819D-F93695FDDA28}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16986617" y="5143498"/>
+            <a:ext cx="2466158" cy="2296888"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 4878"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ロール</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ポリシー</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>  cloudwatch:PutMetricData</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>cloudwatch:DisableAlarmActions</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" indent="0" algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>  cloudwatch:EnableAlarmActions</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>  ec2:CreateSnapshot</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>  ec2:CreateTags</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>  ec2:DeleteSnapshot</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>  ec2:DescribeTags</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>  ec2:DescribeVolumes</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>   </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>sns:Publish (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>アプリを配置する</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>EC2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>用</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>   </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ssm:GetParameter</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="角丸四角形 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD9738D-3A4A-4FD7-810C-5B63100974C6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15139854" y="6760867"/>
+            <a:ext cx="1692000" cy="679519"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 13263"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>System</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t> Manager</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>パラメータストア</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>メトリクス取得用</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18165,7 +18463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="P36:AR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -18211,7 +18509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="P36:AR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>

--- a/doc/images/work.xlsx
+++ b/doc/images/work.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820EA3F1-77CB-47E5-A07A-8A3B264F1F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A22383-DEC3-4DF9-BBAE-92D2ED6DDF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,20 @@
     <sheet name="aws" sheetId="14" r:id="rId3"/>
     <sheet name="AWSコンソール" sheetId="16" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3305,7 +3318,29 @@
                   <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                   <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>docker/docker-compose</a:t>
+                <a:t>docker/docker</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>compose</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
@@ -4152,7 +4187,7 @@
                   <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>CentOS/docker</a:t>
+                <a:t>Amazon Linux 2023/docker</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
@@ -4268,7 +4303,21 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>docker-compose</a:t>
+              <a:t>docker</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>compose</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
@@ -10379,13 +10428,13 @@
     <xdr:from>
       <xdr:col>76</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>110</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -10401,8 +10450,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21153664" y="8271782"/>
-          <a:ext cx="9590315" cy="3431723"/>
+          <a:off x="21153664" y="8631011"/>
+          <a:ext cx="9590315" cy="3431722"/>
           <a:chOff x="1866900" y="12639675"/>
           <a:chExt cx="9544050" cy="3457576"/>
         </a:xfrm>
@@ -13290,13 +13339,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -13312,7 +13361,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4325711" y="8092168"/>
+          <a:off x="4325711" y="8451396"/>
           <a:ext cx="3886200" cy="2439760"/>
           <a:chOff x="3971925" y="7858125"/>
           <a:chExt cx="3867150" cy="2457449"/>
@@ -17910,6 +17959,272 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>277585</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6278669-83DE-4A2A-8B78-208CE16C89A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7494814" y="7903029"/>
+          <a:ext cx="2775857" cy="547908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>AWS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>マネジメントコンソールで操作して作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>CloudFormation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>でテンプレートから作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>62189</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>104894</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>56553</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="角丸四角形 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8A41DC-7703-452E-AFB7-A73D64B8A944}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7557003" y="7988049"/>
+          <a:ext cx="320291" cy="151147"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13263"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>62189</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>113233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>104894</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>84766</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="角丸四角形 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102B4668-B03B-4601-9235-F30EB7E01989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7557003" y="8195876"/>
+          <a:ext cx="320291" cy="151147"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13263"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18463,7 +18778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="P36:AR52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -18507,10 +18822,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="P36:AR52"/>
+  <dimension ref="P36:AR54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -18521,11 +18836,11 @@
     <row r="36" spans="16:16" x14ac:dyDescent="0.15">
       <c r="P36"/>
     </row>
-    <row r="50" spans="41:44" x14ac:dyDescent="0.15">
-      <c r="AO50"/>
+    <row r="52" spans="41:44" x14ac:dyDescent="0.15">
+      <c r="AO52"/>
     </row>
-    <row r="52" spans="41:44" x14ac:dyDescent="0.15">
-      <c r="AR52"/>
+    <row r="54" spans="41:44" x14ac:dyDescent="0.15">
+      <c r="AR54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/images/work.xlsx
+++ b/doc/images/work.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F974BF1-6F02-4301-B6E8-119261FDE44E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A22383-DEC3-4DF9-BBAE-92D2ED6DDF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="12" r:id="rId1"/>
@@ -13,7 +13,20 @@
     <sheet name="aws" sheetId="14" r:id="rId3"/>
     <sheet name="AWSコンソール" sheetId="16" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3305,7 +3318,29 @@
                   <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                   <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>docker/docker-compose</a:t>
+                <a:t>docker/docker</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>compose</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
@@ -4152,7 +4187,7 @@
                   <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>CentOS/docker</a:t>
+                <a:t>Amazon Linux 2023/docker</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
@@ -4268,7 +4303,21 @@
                 <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>docker-compose</a:t>
+              <a:t>docker</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>compose</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
@@ -6637,262 +6686,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>13845</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>22910</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="100" name="グループ化 99">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000064000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7513865" y="7378031"/>
-          <a:ext cx="2736397" cy="547908"/>
-          <a:chOff x="5543551" y="9182213"/>
-          <a:chExt cx="2724150" cy="552450"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="97" name="テキスト ボックス 96">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5543551" y="9182213"/>
-            <a:ext cx="2724150" cy="552450"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>　　　　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>AWS</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>マネジメントコンソールで操作して作成</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>　　　　</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>CloudFormation</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>でテンプレートから作成</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="96" name="角丸四角形 95">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5605463" y="9267938"/>
-            <a:ext cx="314325" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 13263"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="98" name="角丸四角形 97">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5605463" y="9477488"/>
-            <a:ext cx="314325" cy="152400"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 13263"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -6917,8 +6710,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2181225" y="1047751"/>
-          <a:ext cx="7872414" cy="4492059"/>
+          <a:off x="2190750" y="1040947"/>
+          <a:ext cx="7911875" cy="4458042"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7346,8 +7139,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6376988" y="2427726"/>
-          <a:ext cx="1581150" cy="2084239"/>
+          <a:off x="6408284" y="2410037"/>
+          <a:ext cx="1587954" cy="2069271"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7852,192 +7645,197 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>204788</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>141520</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>128588</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>178835</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>112366</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="角丸四角形 68">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="グループ化 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE03AEB-2400-F4D5-3718-78E3023A5D4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8215313" y="2675170"/>
-          <a:ext cx="1581150" cy="942190"/>
+          <a:off x="8254774" y="2410037"/>
+          <a:ext cx="1589314" cy="935386"/>
+          <a:chOff x="8254774" y="2656120"/>
+          <a:chExt cx="1589314" cy="935386"/>
         </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 7828"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>EC2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>demo</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>138113</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>141219</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>195263</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>93331</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="角丸四角形 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8424863" y="3036819"/>
-          <a:ext cx="1162050" cy="314062"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 21460"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent6"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>デモ環境</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="角丸四角形 68">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8254774" y="2656120"/>
+            <a:ext cx="1589314" cy="935386"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 7828"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>EC2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>demo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>）</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="角丸四角形 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8465684" y="3015048"/>
+            <a:ext cx="1167493" cy="311340"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 21460"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPts val="1300"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>デモ環境</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -8685,13 +8483,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
+      <xdr:colOff>262618</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>170823</xdr:rowOff>
+      <xdr:rowOff>170822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
+      <xdr:colOff>262618</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>75051</xdr:rowOff>
     </xdr:to>
@@ -8711,8 +8509,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7167563" y="1799598"/>
-          <a:ext cx="0" cy="628128"/>
+          <a:off x="7202261" y="1787351"/>
+          <a:ext cx="0" cy="622686"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8745,13 +8543,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
+      <xdr:colOff>262618</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>168565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
+      <xdr:colOff>262618</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>53908</xdr:rowOff>
     </xdr:to>
@@ -8771,8 +8569,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7167563" y="4511965"/>
-          <a:ext cx="0" cy="428268"/>
+          <a:off x="7202261" y="4479308"/>
+          <a:ext cx="0" cy="424186"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8806,14 +8604,14 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180340</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>141520</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75051</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8831,8 +8629,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9005888" y="1809115"/>
-          <a:ext cx="0" cy="866055"/>
+          <a:off x="9049431" y="1796868"/>
+          <a:ext cx="0" cy="613169"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8860,245 +8658,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>91374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>62371</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="角丸四角形 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9144000" y="5701599"/>
-          <a:ext cx="1000125" cy="513922"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 13884"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>CloudWatch</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>アラーム</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>62219</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>23549</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="角丸四角形 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8277224" y="6396344"/>
-          <a:ext cx="1666875" cy="685230"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 13263"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>SNS</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>トピック</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　サブスクリプション</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>(email)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -9178,2829 +8737,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>200027</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>91374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>90019</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="角丸四角形 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6000752" y="5701599"/>
-          <a:ext cx="2028824" cy="1627420"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 4878"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ロール</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ポリシー</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  cloudwatch:PutMetricData</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  ec2:CreateSnapshot</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  ec2:CreateTags</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  ec2:DeleteSnapshot</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  ec2:DescribeTags</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  ec2:DescribeVolumes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  sns:Publish</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>72340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>71136</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="角丸四角形 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2190750" y="5682565"/>
-          <a:ext cx="1800225" cy="1446596"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 5795"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Route53</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ドメイン</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>.xxxxx.xxx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>レコードセット</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  nop-cq.xxxxx.xxx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  nop-ci.xxxxx.xxx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>nop-demo.xxxxx.xxx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>91374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>73026</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>90772</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="角丸四角形 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4102100" y="5701599"/>
-          <a:ext cx="1771651" cy="723298"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 8427"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>Certificate Manager</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>SSL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>証明書</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>  *</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>.xxxxx.xxx</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>114302</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>100892</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>176726</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="角丸四角形 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8124827" y="5711117"/>
-          <a:ext cx="923924" cy="437784"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 8427"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>キーペア</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="11457214" y="889907"/>
-          <a:ext cx="7992836" cy="6181725"/>
-          <a:chOff x="9191625" y="381000"/>
-          <a:chExt cx="7953375" cy="6238875"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="グループ化 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="9191625" y="381000"/>
-            <a:ext cx="7953375" cy="5772151"/>
-            <a:chOff x="9191625" y="381000"/>
-            <a:chExt cx="7953375" cy="5772151"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:grpSp>
-          <xdr:nvGrpSpPr>
-            <xdr:cNvPr id="119" name="グループ化 118">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGrpSpPr/>
-          </xdr:nvGrpSpPr>
-          <xdr:grpSpPr>
-            <a:xfrm>
-              <a:off x="9191625" y="381000"/>
-              <a:ext cx="7953375" cy="5276851"/>
-              <a:chOff x="9391650" y="15020925"/>
-              <a:chExt cx="7953375" cy="5276851"/>
-            </a:xfrm>
-          </xdr:grpSpPr>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="106" name="角丸四角形 105">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="9391650" y="15201900"/>
-                <a:ext cx="7953375" cy="4010026"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 2355"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>VPC</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="107" name="角丸四角形 106">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="9515475" y="15706726"/>
-                <a:ext cx="4200525" cy="2447924"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 2530"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>サブネット</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>パブリックサブネット</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="108" name="角丸四角形 107">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006C000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="9667875" y="17125950"/>
-                <a:ext cx="2152650" cy="609600"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 6912"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>EC2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>（踏み台サーバ）</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>AMI ID: CentOS Linux 7</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="109" name="角丸四角形 108">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13868400" y="15697200"/>
-                <a:ext cx="3362325" cy="3419475"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 2596"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>サブネット</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>プライベートサブネット</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="110" name="角丸四角形 109">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="9658350" y="16221075"/>
-                <a:ext cx="3343275" cy="561975"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 8427"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>NAT </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>ゲートウェイ</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>プライベートネットワークからインターネットにアクセスするため</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>)</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="111" name="角丸四角形 110">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="12411076" y="15020925"/>
-                <a:ext cx="1428749" cy="304800"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 8427"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>インターネットゲートウェイ</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="112" name="角丸四角形 111">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11430001" y="17335500"/>
-                <a:ext cx="1781174" cy="704850"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 8427"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>セキュリティグループ</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>IN:22(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>ソース</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>:</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>開発拠点の</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>IP)</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>OUT:</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>すべて</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="113" name="角丸四角形 112">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="9544050" y="19421476"/>
-                <a:ext cx="1781174" cy="876300"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 7111"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>Route53</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>ドメイン</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>  xxxxx.xxx</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>（</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>ALB</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>用）</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="114" name="角丸四角形 113">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000072000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11496674" y="19421475"/>
-                <a:ext cx="1771651" cy="819149"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 8427"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>Certificate Manager</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>SSL</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>証明書</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>  *</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>.xxxxx.xxx</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>（</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>ALB</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>用）</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="115" name="角丸四角形 114">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="13449300" y="19421475"/>
-                <a:ext cx="1762125" cy="561975"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 8427"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>キーペア</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>（アプリを配置する</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>EC2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>用）</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="116" name="角丸四角形 115">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="9534525" y="18288000"/>
-                <a:ext cx="4191000" cy="828675"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 10655"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>サブネット</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>パブリックサブネット</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>2</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>(ALB</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>を使う際にパブリックサブネットが</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>つ以上必要なため</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>)</a:t>
-                </a:r>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="117" name="角丸四角形 116">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11991976" y="16049625"/>
-                <a:ext cx="838200" cy="304800"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 8427"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>Elastic</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>IP</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-          <xdr:sp macro="" textlink="">
-            <xdr:nvSpPr>
-              <xdr:cNvPr id="118" name="角丸四角形 117">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvSpPr/>
-            </xdr:nvSpPr>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="11134725" y="16906875"/>
-                <a:ext cx="838200" cy="304800"/>
-              </a:xfrm>
-              <a:prstGeom prst="roundRect">
-                <a:avLst>
-                  <a:gd name="adj" fmla="val 8427"/>
-                </a:avLst>
-              </a:prstGeom>
-              <a:ln w="3175">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </xdr:spPr>
-            <xdr:style>
-              <a:lnRef idx="2">
-                <a:schemeClr val="accent3"/>
-              </a:lnRef>
-              <a:fillRef idx="1">
-                <a:schemeClr val="lt1"/>
-              </a:fillRef>
-              <a:effectRef idx="0">
-                <a:schemeClr val="accent3"/>
-              </a:effectRef>
-              <a:fontRef idx="minor">
-                <a:schemeClr val="dk1"/>
-              </a:fontRef>
-            </xdr:style>
-            <xdr:txBody>
-              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="l">
-                  <a:lnSpc>
-                    <a:spcPts val="1300"/>
-                  </a:lnSpc>
-                </a:pPr>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>Elastic</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                    <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  </a:rPr>
-                  <a:t>IP</a:t>
-                </a:r>
-                <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:endParaRPr>
-              </a:p>
-            </xdr:txBody>
-          </xdr:sp>
-        </xdr:grpSp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="101" name="角丸四角形 100">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000065000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13306425" y="5467350"/>
-              <a:ext cx="1666875" cy="685801"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst>
-                <a:gd name="adj" fmla="val 13263"/>
-              </a:avLst>
-            </a:prstGeom>
-            <a:ln w="3175">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent3"/>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="lt1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent3"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="dk1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l">
-                <a:lnSpc>
-                  <a:spcPts val="1300"/>
-                </a:lnSpc>
-              </a:pPr>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>SNS</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l">
-                <a:lnSpc>
-                  <a:spcPts val="1300"/>
-                </a:lnSpc>
-              </a:pPr>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>トピック</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l">
-                <a:lnSpc>
-                  <a:spcPts val="1300"/>
-                </a:lnSpc>
-              </a:pPr>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>　サブスクリプション</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>(email)</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="角丸四角形 89">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15116175" y="4762500"/>
-            <a:ext cx="2028824" cy="1857375"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 4878"/>
-            </a:avLst>
-          </a:prstGeom>
-          <a:ln w="3175">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent3"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent3"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ロール</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ポリシー</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  cloudwatch:PutMetricData</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:CreateSnapshot</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:CreateTags</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:DeleteSnapshot</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:DescribeTags</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  ec2:DescribeVolumes</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>  sns:Publish</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>（アプリを配置する</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>EC2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>用）</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l">
-              <a:lnSpc>
-                <a:spcPts val="1300"/>
-              </a:lnSpc>
-            </a:pPr>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -13692,13 +10428,13 @@
     <xdr:from>
       <xdr:col>76</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>110</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -13714,8 +10450,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21153664" y="8271782"/>
-          <a:ext cx="9590315" cy="3431723"/>
+          <a:off x="21153664" y="8631011"/>
+          <a:ext cx="9590315" cy="3431722"/>
           <a:chOff x="1866900" y="12639675"/>
           <a:chExt cx="9544050" cy="3457576"/>
         </a:xfrm>
@@ -16603,13 +13339,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -16625,7 +13361,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4325711" y="8092168"/>
+          <a:off x="4325711" y="8451396"/>
           <a:ext cx="3886200" cy="2439760"/>
           <a:chOff x="3971925" y="7858125"/>
           <a:chExt cx="3867150" cy="2457449"/>
@@ -17420,115 +14156,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>225238</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>30817</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="角丸四角形 133">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000086000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4147297" y="6485405"/>
-          <a:ext cx="1780615" cy="439829"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 5795"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>DLM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -17602,6 +14229,3992 @@
             <a:t>Subversion</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>117021</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3FB94C7-34DF-4A7D-9248-9E15BE0437AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2193471" y="5659417"/>
+          <a:ext cx="1809750" cy="1435710"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5795"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Route53</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ドメイン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>.xxxxx.xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>レコードセット</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  nop-cq.xxxxx.xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  nop-ci.xxxxx.xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>nop-demo.xxxxx.xxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>206374</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>89316</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627F7763-9155-4475-9BFA-644C45607000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4092574" y="5659416"/>
+          <a:ext cx="1781176" cy="716400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8427"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Certificate Manager</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SSL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>証明書</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>.xxxxx.xxx</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>206374</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>44787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>25960</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>90170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE8E3E0-834B-4827-9C59-0F1B936BC62C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4092574" y="6510901"/>
+          <a:ext cx="1762686" cy="584226"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5795"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DLM</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>141511</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>91374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1357</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="角丸四角形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23AE4DBD-7421-401D-BD52-123E36A1B36B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5970811" y="5659417"/>
+          <a:ext cx="2358117" cy="2151083"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4878"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ロール</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ポリシー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  cloudwatch:PutMetricData</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  cloudwatch:DisableAlarmActions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  cloudwatch:EnableAlarmActions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:CreateSnapshot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:CreateTags</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:DeleteSnapshot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:DescribeTags</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ec2:DescribeVolumes</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  sns:Publish</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ssm:GetParameter</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1000" b="0" u="none" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>249685</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>92530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>111342</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="角丸四角形 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8E038A-15AD-4A1A-8E72-3683A6829F6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9132428" y="5660573"/>
+          <a:ext cx="972000" cy="504000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13884"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>CloudWatch</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>アラーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>93886</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>13356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>121094</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>154300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="角丸四角形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E9D817C-59F5-40C3-80DF-DF384751FDCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8421457" y="6299856"/>
+          <a:ext cx="1692723" cy="679787"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13263"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SNS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>トピック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　サブスクリプション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(email)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>93886</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>92530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>186714</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="角丸四角形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98107CE-0064-4A78-89B3-9909F7A5037F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8421457" y="5660573"/>
+          <a:ext cx="648000" cy="504000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8427"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>キーペア</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>93886</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>109970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>120371</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>71913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="角丸四角形 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EEE69F-0BB9-43FD-819D-5DCDB595AAF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8421457" y="7114927"/>
+          <a:ext cx="1692000" cy="680400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 13263"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>System</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> Manager</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>パラメータストア</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>メトリクス取得用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="none">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>65316</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>21775</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="グループ化 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E134222-13C5-8CB8-BBC3-AB2738135F31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11446330" y="889907"/>
+          <a:ext cx="8006445" cy="6550479"/>
+          <a:chOff x="11446330" y="889907"/>
+          <a:chExt cx="8006445" cy="6550479"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="119" name="グループ化 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11457214" y="889907"/>
+            <a:ext cx="7992836" cy="4152610"/>
+            <a:chOff x="9391650" y="15020925"/>
+            <a:chExt cx="7953375" cy="4191001"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="106" name="角丸四角形 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9391650" y="15201900"/>
+              <a:ext cx="7953375" cy="4010026"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 2355"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>VPC</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="107" name="角丸四角形 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9515475" y="15706726"/>
+              <a:ext cx="4200525" cy="2447924"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst>
+                <a:gd name="adj" fmla="val 2530"/>
+              </a:avLst>
+            </a:prstGeom>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent3"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent3"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0" u="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>サブネット</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l">
+                <a:lnSpc>
+                  <a:spcPts val="1300"/>
+                </a:lnSpc>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                  <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>パブリックサブネット</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <x